--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 13.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\OneDrive - WBG\Venezuela\ENCOVI\2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/macuna_worldbank_org/Documents/Venezuela/ENCOVI/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{77D8A0D9-5B19-40EE-B1A7-A4599F626D1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{229C022A-4996-4305-963B-CBAA2016F29E}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{77D8A0D9-5B19-40EE-B1A7-A4599F626D1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EE51320D-5CF1-42F6-9BDF-CD0F9DA43934}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" firstSheet="3" activeTab="8" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" firstSheet="1" activeTab="6" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2068" uniqueCount="1288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1289">
   <si>
     <t>Questions</t>
   </si>
@@ -4369,10 +4369,6 @@
   </si>
   <si>
     <t>s9q29c_8</t>
-  </si>
-  <si>
-    <t>inla_otro 
-(i.e. Ingreso monetario extraordinario)</t>
   </si>
   <si>
     <t>s9q29c_1</t>
@@ -5099,9 +5095,6 @@
     <t>inla_asig_men</t>
   </si>
   <si>
-    <t>inla_otro</t>
-  </si>
-  <si>
     <t>inla_*_cant</t>
   </si>
   <si>
@@ -5252,6 +5245,16 @@
   </si>
   <si>
     <t>¿Quién pagó por el seguro médico? (solo se pregunta si s8q19 = 1 y s8q18=5)</t>
+  </si>
+  <si>
+    <t>inla_extraord
+(i.e. Ingreso monetario extraordinario)</t>
+  </si>
+  <si>
+    <t>inla_otro (i.e. La imputación de ingreso no laboral diferente a ijubi_m)</t>
+  </si>
+  <si>
+    <t>inla_otros</t>
   </si>
 </sst>
 </file>
@@ -5606,7 +5609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6174,9 +6177,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6203,6 +6203,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6792,10 +6813,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="71" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>168</v>
@@ -7017,10 +7038,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="71" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
@@ -7115,10 +7136,10 @@
         <v>442</v>
       </c>
       <c r="B37" s="171" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
   </sheetData>
@@ -7231,7 +7252,7 @@
         <v>402</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>407</v>
@@ -7434,13 +7455,13 @@
       <c r="D2" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="200" t="s">
+      <c r="E2" s="199" t="s">
         <v>839</v>
       </c>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
       <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
@@ -8232,7 +8253,7 @@
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="71" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F3" s="71"/>
       <c r="G3" s="142"/>
@@ -8292,7 +8313,7 @@
         <v>728</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G6" s="142"/>
       <c r="H6" s="142"/>
@@ -8786,7 +8807,7 @@
         <v>433</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
@@ -8800,7 +8821,7 @@
         <v>434</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
@@ -8827,12 +8848,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1">
-      <c r="A1" s="201">
+      <c r="A1" s="200">
         <v>2019</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="202"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="201"/>
     </row>
     <row r="2" spans="1:5" s="50" customFormat="1" ht="43.2">
       <c r="A2" s="94" t="s">
@@ -8851,30 +8872,30 @@
     </row>
     <row r="3" spans="1:5" ht="57.6">
       <c r="A3" s="71" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B3" s="71" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6">
       <c r="A4" s="71" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -8908,13 +8929,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="201">
+      <c r="A1" s="200">
         <v>2019</v>
       </c>
-      <c r="B1" s="201"/>
-      <c r="C1" s="201"/>
-      <c r="D1" s="201"/>
-      <c r="E1" s="202"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="201"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -8932,10 +8953,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="203" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="204"/>
+      <c r="B2" s="203"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -8953,10 +8974,10 @@
       <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="72">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="202" t="s">
         <v>885</v>
       </c>
-      <c r="B3" s="203"/>
+      <c r="B3" s="202"/>
       <c r="C3" s="71" t="s">
         <v>899</v>
       </c>
@@ -8983,7 +9004,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.8">
-      <c r="A4" s="203" t="s">
+      <c r="A4" s="202" t="s">
         <v>915</v>
       </c>
       <c r="B4" s="70" t="s">
@@ -9015,7 +9036,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="115.2">
-      <c r="A5" s="203"/>
+      <c r="A5" s="202"/>
       <c r="B5" s="70" t="s">
         <v>887</v>
       </c>
@@ -9045,7 +9066,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="144">
-      <c r="A6" s="203"/>
+      <c r="A6" s="202"/>
       <c r="B6" s="70" t="s">
         <v>888</v>
       </c>
@@ -9075,7 +9096,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="144">
-      <c r="A7" s="203"/>
+      <c r="A7" s="202"/>
       <c r="B7" s="70" t="s">
         <v>889</v>
       </c>
@@ -9105,7 +9126,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="187.2">
-      <c r="A8" s="203"/>
+      <c r="A8" s="202"/>
       <c r="B8" s="70" t="s">
         <v>890</v>
       </c>
@@ -9135,7 +9156,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="302.39999999999998">
-      <c r="A9" s="203"/>
+      <c r="A9" s="202"/>
       <c r="B9" s="70" t="s">
         <v>891</v>
       </c>
@@ -9165,7 +9186,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
-      <c r="A10" s="203"/>
+      <c r="A10" s="202"/>
       <c r="B10" s="86" t="s">
         <v>892</v>
       </c>
@@ -9195,7 +9216,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="187.2">
-      <c r="A11" s="203"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="70" t="s">
         <v>893</v>
       </c>
@@ -9225,7 +9246,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="144">
-      <c r="A12" s="203"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="70" t="s">
         <v>894</v>
       </c>
@@ -9255,7 +9276,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="144">
-      <c r="A13" s="203"/>
+      <c r="A13" s="202"/>
       <c r="B13" s="70" t="s">
         <v>895</v>
       </c>
@@ -9285,7 +9306,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="203"/>
+      <c r="A14" s="202"/>
       <c r="B14" s="70" t="s">
         <v>896</v>
       </c>
@@ -9313,7 +9334,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="203"/>
+      <c r="A15" s="202"/>
       <c r="B15" s="70" t="s">
         <v>897</v>
       </c>
@@ -9341,10 +9362,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.2">
-      <c r="A16" s="203" t="s">
+      <c r="A16" s="202" t="s">
         <v>898</v>
       </c>
-      <c r="B16" s="203"/>
+      <c r="B16" s="202"/>
       <c r="C16" s="70" t="s">
         <v>930</v>
       </c>
@@ -9758,7 +9779,7 @@
         <v>213</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -9775,10 +9796,10 @@
         <v>214</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
@@ -9794,7 +9815,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
@@ -9811,7 +9832,7 @@
         <v>216</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
@@ -9882,7 +9903,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -9937,13 +9958,13 @@
         <v>295</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>296</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>291</v>
@@ -10073,7 +10094,7 @@
         <v>316</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="69"/>
@@ -10092,7 +10113,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
@@ -10124,13 +10145,13 @@
         <v>323</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>324</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -10168,7 +10189,7 @@
         <v>329</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -10187,7 +10208,7 @@
         <v>332</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -10520,7 +10541,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>89</v>
@@ -11927,7 +11948,7 @@
         <v>72</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>29</v>
@@ -12032,7 +12053,7 @@
         <v>440</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E3" s="69" t="s">
         <v>442</v>
@@ -12081,13 +12102,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B5" s="69" t="s">
         <v>1111</v>
       </c>
-      <c r="B5" s="69" t="s">
-        <v>1112</v>
-      </c>
       <c r="C5" s="64" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="69" t="s">
@@ -12117,7 +12138,7 @@
         <v>449</v>
       </c>
       <c r="D6" s="64" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E6" s="69" t="s">
         <v>442</v>
@@ -12195,13 +12216,13 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="69" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="69" t="s">
@@ -12225,7 +12246,7 @@
         <v>458</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C10" s="64" t="s">
         <v>459</v>
@@ -12251,13 +12272,13 @@
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="64" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>1117</v>
-      </c>
-      <c r="B11" s="69" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>1118</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -12277,7 +12298,7 @@
         <v>463</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E12" s="64" t="s">
         <v>442</v>
@@ -12391,7 +12412,7 @@
         <v>477</v>
       </c>
       <c r="D16" s="64" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E16" s="64" t="s">
         <v>442</v>
@@ -12469,13 +12490,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="69" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B19" s="69" t="s">
         <v>1119</v>
       </c>
-      <c r="B19" s="69" t="s">
-        <v>1120</v>
-      </c>
       <c r="C19" s="64" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -12580,7 +12601,7 @@
         <v>493</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E23" s="64" t="s">
         <v>442</v>
@@ -12603,7 +12624,7 @@
         <v>494</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C24" s="69" t="s">
         <v>496</v>
@@ -12694,7 +12715,7 @@
         <v>503</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E27" s="64" t="s">
         <v>442</v>
@@ -12808,7 +12829,7 @@
         <v>512</v>
       </c>
       <c r="D31" s="64" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E31" s="64" t="s">
         <v>513</v>
@@ -12866,7 +12887,7 @@
         <v>527</v>
       </c>
       <c r="D33" s="64" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E33" s="64" t="s">
         <v>442</v>
@@ -12889,10 +12910,10 @@
         <v>528</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="D34" s="64" t="s">
         <v>529</v>
@@ -12916,7 +12937,7 @@
     <row r="35" spans="1:9" ht="28.8">
       <c r="A35" s="69"/>
       <c r="B35" s="64" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -13039,11 +13060,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF78F7-F282-409F-A3BB-6F7024B1FD58}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -13204,7 +13225,7 @@
         <v>552</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>553</v>
@@ -13234,7 +13255,7 @@
         <v>556</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D7" s="38" t="s">
         <v>441</v>
@@ -13346,13 +13367,13 @@
     </row>
     <row r="11" spans="1:10" ht="41.4">
       <c r="A11" s="144" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B11" s="144" t="s">
         <v>1128</v>
       </c>
-      <c r="B11" s="144" t="s">
-        <v>1129</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D11" s="38" t="s">
         <v>441</v>
@@ -13375,13 +13396,13 @@
     </row>
     <row r="12" spans="1:10" ht="27.6">
       <c r="A12" s="144" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B12" s="144" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D12" s="38" t="s">
         <v>441</v>
@@ -13394,13 +13415,13 @@
     </row>
     <row r="13" spans="1:10" ht="27.6">
       <c r="A13" s="144" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B13" s="144" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>441</v>
@@ -13413,13 +13434,13 @@
     </row>
     <row r="14" spans="1:10" ht="41.4">
       <c r="A14" s="144" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B14" s="144" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D14" s="38" t="s">
         <v>441</v>
@@ -13432,13 +13453,13 @@
     </row>
     <row r="15" spans="1:10" ht="41.4">
       <c r="A15" s="144" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B15" s="144" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D15" s="38" t="s">
         <v>441</v>
@@ -13451,13 +13472,13 @@
     </row>
     <row r="16" spans="1:10" ht="41.4">
       <c r="A16" s="144" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D16" s="38" t="s">
         <v>441</v>
@@ -13470,13 +13491,13 @@
     </row>
     <row r="17" spans="1:9" ht="27.6">
       <c r="A17" s="144" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="B17" s="144" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D17" s="38" t="s">
         <v>441</v>
@@ -13489,13 +13510,13 @@
     </row>
     <row r="18" spans="1:9" ht="27.6">
       <c r="A18" s="144" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B18" s="144" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D18" s="38" t="s">
         <v>441</v>
@@ -13566,13 +13587,13 @@
     </row>
     <row r="21" spans="1:9" ht="41.4">
       <c r="A21" s="14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>1145</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="C21" s="15" t="s">
         <v>1146</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>1147</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="16" t="s">
@@ -13792,16 +13813,16 @@
     </row>
     <row r="29" spans="1:9" ht="336.6">
       <c r="A29" s="140" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B29" s="140" t="s">
         <v>613</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>614</v>
@@ -13877,13 +13898,13 @@
     </row>
     <row r="32" spans="1:9" ht="55.2">
       <c r="A32" s="25" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B32" s="170" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>1229</v>
-      </c>
-      <c r="B32" s="170" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>1230</v>
       </c>
       <c r="D32" s="43" t="s">
         <v>927</v>
@@ -13899,7 +13920,7 @@
         <v>1000</v>
       </c>
       <c r="B33" s="170" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>617</v>
@@ -13919,10 +13940,10 @@
         <v>624</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="E34" s="24" t="s">
         <v>625</v>
@@ -13940,7 +13961,7 @@
         <v>823</v>
       </c>
       <c r="J34" s="89" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -14001,7 +14022,7 @@
     </row>
     <row r="37" spans="1:10" ht="244.8">
       <c r="A37" s="140" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B37" s="26" t="s">
         <v>630</v>
@@ -14088,7 +14109,7 @@
         <v>639</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D40" s="43" t="s">
         <v>927</v>
@@ -14136,7 +14157,7 @@
         <v>442</v>
       </c>
       <c r="J41" s="89" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20.399999999999999">
@@ -14179,7 +14200,7 @@
         <v>647</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E43" s="44" t="s">
         <v>442</v>
@@ -14264,7 +14285,7 @@
         <v>654</v>
       </c>
       <c r="D46" s="43" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="E46" s="44" t="s">
         <v>442</v>
@@ -14349,7 +14370,7 @@
         <v>663</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E49" s="44" t="s">
         <v>442</v>
@@ -14428,13 +14449,13 @@
         <v>668</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>669</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>442</v>
@@ -14457,7 +14478,7 @@
         <v>670</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C53" s="23" t="s">
         <v>617</v>
@@ -14479,7 +14500,7 @@
         <v>442</v>
       </c>
       <c r="J53" s="89" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20.399999999999999">
@@ -14487,7 +14508,7 @@
         <v>671</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>621</v>
@@ -14516,7 +14537,7 @@
         <v>672</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>673</v>
@@ -14538,7 +14559,7 @@
         <v>442</v>
       </c>
       <c r="J55" s="89" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20.399999999999999">
@@ -14546,7 +14567,7 @@
         <v>674</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C56" s="23" t="s">
         <v>621</v>
@@ -14601,13 +14622,13 @@
     </row>
     <row r="58" spans="1:10" ht="41.4">
       <c r="A58" s="28" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>1148</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>1149</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="30" t="s">
@@ -14715,13 +14736,13 @@
     </row>
     <row r="62" spans="1:10" ht="41.4">
       <c r="A62" s="28" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B62" s="28" t="s">
         <v>1151</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="C62" s="29" t="s">
         <v>1152</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>1153</v>
       </c>
       <c r="D62" s="45" t="s">
         <v>442</v>
@@ -14802,13 +14823,13 @@
     </row>
     <row r="65" spans="1:13" ht="27.6">
       <c r="A65" s="28" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B65" s="28" t="s">
         <v>1154</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="C65" s="29" t="s">
         <v>1155</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>1156</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45" t="s">
@@ -14861,10 +14882,10 @@
         <v>712</v>
       </c>
       <c r="B67" s="145" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D67" s="47" t="s">
         <v>714</v>
@@ -14888,10 +14909,10 @@
     <row r="68" spans="1:13" s="178" customFormat="1">
       <c r="A68" s="172"/>
       <c r="B68" s="173" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C68" s="174" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="D68" s="175"/>
       <c r="E68" s="176"/>
@@ -14905,10 +14926,10 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="31" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B69" s="145" t="s">
         <v>1158</v>
-      </c>
-      <c r="B69" s="145" t="s">
-        <v>1159</v>
       </c>
       <c r="C69" s="32" t="s">
         <v>713</v>
@@ -15005,10 +15026,10 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:C9"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15060,19 +15081,19 @@
     </row>
     <row r="3" spans="1:10" ht="43.2">
       <c r="A3" s="158" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B3" s="158" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C3" s="158" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D3" s="159" t="s">
         <v>441</v>
       </c>
       <c r="E3" s="156" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H3" s="150"/>
       <c r="I3" s="150"/>
@@ -15080,13 +15101,13 @@
     </row>
     <row r="4" spans="1:10" ht="28.8">
       <c r="A4" s="158" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B4" s="158" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C4" s="158" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D4" s="159" t="s">
         <v>441</v>
@@ -15106,13 +15127,13 @@
     </row>
     <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="158" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B5" s="158" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C5" s="158" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D5" s="159" t="s">
         <v>441</v>
@@ -15128,13 +15149,13 @@
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="43.2">
       <c r="A6" s="158" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="B6" s="158" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="C6" s="158" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D6" s="159" t="s">
         <v>441</v>
@@ -15149,13 +15170,13 @@
     </row>
     <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="158" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B7" s="158" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="C7" s="158" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D7" s="159" t="s">
         <v>441</v>
@@ -15169,13 +15190,13 @@
     </row>
     <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="158" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="B8" s="158" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="C8" s="158" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D8" s="159" t="s">
         <v>441</v>
@@ -15188,13 +15209,13 @@
     </row>
     <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="158" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B9" s="158" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="C9" s="158" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="D9" s="159" t="s">
         <v>441</v>
@@ -15207,13 +15228,13 @@
     </row>
     <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="158" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B10" s="158" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="D10" s="159" t="s">
         <v>441</v>
@@ -15226,13 +15247,13 @@
     </row>
     <row r="11" spans="1:10" ht="43.2">
       <c r="A11" s="158" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B11" s="158" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D11" s="159" t="s">
         <v>441</v>
@@ -15245,13 +15266,13 @@
     </row>
     <row r="12" spans="1:10" ht="28.8">
       <c r="A12" s="158" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B12" s="158" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D12" s="159" t="s">
         <v>441</v>
@@ -15264,13 +15285,13 @@
     </row>
     <row r="13" spans="1:10" ht="28.8">
       <c r="A13" s="158" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B13" s="158" t="s">
-        <v>1245</v>
+        <v>1288</v>
       </c>
       <c r="C13" s="158" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D13" s="159" t="s">
         <v>441</v>
@@ -15283,10 +15304,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="160" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B14" s="160" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C14" s="161" t="s">
         <v>642</v>
@@ -15300,13 +15321,13 @@
     </row>
     <row r="15" spans="1:10" ht="40.799999999999997">
       <c r="A15" s="160" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B15" s="160" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C15" s="161" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D15" s="162" t="s">
         <v>622</v>
@@ -15319,13 +15340,13 @@
     </row>
     <row r="16" spans="1:10" ht="28.8">
       <c r="A16" s="169" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="B16" s="169" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="D16" s="159" t="s">
         <v>441</v>
@@ -15341,7 +15362,7 @@
         <v>999</v>
       </c>
       <c r="B17" s="161" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C17" s="161"/>
       <c r="D17" s="162"/>
@@ -15353,13 +15374,13 @@
     </row>
     <row r="18" spans="1:9" ht="43.2">
       <c r="A18" s="163" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B18" s="164" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="C18" s="164" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D18" s="165" t="s">
         <v>441</v>
@@ -15372,13 +15393,13 @@
     </row>
     <row r="19" spans="1:9" ht="43.2">
       <c r="A19" s="163" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B19" s="164" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C19" s="164" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D19" s="165" t="s">
         <v>441</v>
@@ -15391,13 +15412,13 @@
     </row>
     <row r="20" spans="1:9" ht="43.2">
       <c r="A20" s="163" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B20" s="164" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="C20" s="164" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D20" s="165" t="s">
         <v>441</v>
@@ -15410,13 +15431,13 @@
     </row>
     <row r="21" spans="1:9" ht="57.6">
       <c r="A21" s="163" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B21" s="164" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C21" s="164" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D21" s="165" t="s">
         <v>441</v>
@@ -15429,13 +15450,13 @@
     </row>
     <row r="22" spans="1:9" ht="43.2">
       <c r="A22" s="163" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B22" s="164" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="C22" s="164" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D22" s="165" t="s">
         <v>441</v>
@@ -15448,13 +15469,13 @@
     </row>
     <row r="23" spans="1:9" ht="43.2">
       <c r="A23" s="163" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B23" s="164" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="C23" s="164" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D23" s="165" t="s">
         <v>441</v>
@@ -15467,13 +15488,13 @@
     </row>
     <row r="24" spans="1:9" ht="43.2">
       <c r="A24" s="163" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B24" s="164" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="C24" s="164" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D24" s="165" t="s">
         <v>441</v>
@@ -15486,13 +15507,13 @@
     </row>
     <row r="25" spans="1:9" ht="57.6">
       <c r="A25" s="163" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B25" s="164" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="C25" s="164" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D25" s="165" t="s">
         <v>441</v>
@@ -15505,13 +15526,13 @@
     </row>
     <row r="26" spans="1:9" ht="57.6">
       <c r="A26" s="163" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B26" s="164" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="C26" s="164" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D26" s="165" t="s">
         <v>441</v>
@@ -15519,10 +15540,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="166" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B27" s="167" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C27" s="167" t="s">
         <v>642</v>
@@ -15536,13 +15557,13 @@
     </row>
     <row r="28" spans="1:9" ht="40.799999999999997">
       <c r="A28" s="166" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B28" s="167" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="C28" s="167" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D28" s="168" t="s">
         <v>622</v>
@@ -15567,11 +15588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210A5A2-BF82-48DF-82F0-74E3A1B9E934}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -15603,10 +15624,10 @@
         <v>1001</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D2" s="141" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>0</v>
@@ -15623,13 +15644,13 @@
         <v>1002</v>
       </c>
       <c r="C3" s="99" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D3" s="192" t="s">
         <v>997</v>
       </c>
       <c r="E3" s="112" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F3" s="125" t="s">
         <v>996</v>
@@ -15643,11 +15664,11 @@
         <v>442</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D4" s="193"/>
       <c r="E4" s="112" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F4" s="125"/>
     </row>
@@ -15659,11 +15680,11 @@
         <v>650</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="D5" s="193"/>
       <c r="E5" s="112" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F5" s="126"/>
     </row>
@@ -15675,43 +15696,43 @@
         <v>666</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D6" s="193"/>
       <c r="E6" s="112" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F6" s="126"/>
     </row>
     <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="100" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B7" s="98" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C7" s="98" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D7" s="193"/>
       <c r="E7" s="112" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:6" ht="43.2">
       <c r="A8" s="100" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B8" s="98" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C8" s="98" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="D8" s="194"/>
       <c r="E8" s="112" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F8" s="126"/>
     </row>
@@ -15723,7 +15744,7 @@
         <v>636</v>
       </c>
       <c r="C9" s="97" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D9" s="191" t="s">
         <v>1003</v>
@@ -15743,7 +15764,7 @@
         <v>658</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="D10" s="191"/>
       <c r="E10" s="113" t="s">
@@ -15751,7 +15772,7 @@
       </c>
       <c r="F10" s="127"/>
     </row>
-    <row r="11" spans="1:6" ht="28.8">
+    <row r="11" spans="1:6" ht="28.8" customHeight="1">
       <c r="A11" s="101" t="s">
         <v>1007</v>
       </c>
@@ -15759,9 +15780,9 @@
         <v>1011</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D11" s="195" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D11" s="204" t="s">
         <v>1042</v>
       </c>
       <c r="E11" s="114" t="s">
@@ -15777,9 +15798,9 @@
         <v>1012</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D12" s="195"/>
+        <v>1259</v>
+      </c>
+      <c r="D12" s="205"/>
       <c r="E12" s="114" t="s">
         <v>1032</v>
       </c>
@@ -15793,9 +15814,9 @@
         <v>1013</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D13" s="195"/>
+        <v>1260</v>
+      </c>
+      <c r="D13" s="205"/>
       <c r="E13" s="114" t="s">
         <v>1030</v>
       </c>
@@ -15803,105 +15824,107 @@
     </row>
     <row r="14" spans="1:6" ht="28.8">
       <c r="A14" s="101" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>1014</v>
+        <v>442</v>
       </c>
       <c r="C14" s="101" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D14" s="205"/>
+      <c r="E14" s="114" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F14" s="128"/>
+    </row>
+    <row r="15" spans="1:6" ht="43.2">
+      <c r="A15" s="101" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D15" s="206"/>
+      <c r="E15" s="114" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F15" s="128"/>
+    </row>
+    <row r="16" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="A16" s="108" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C16" s="108" t="s">
         <v>1263</v>
       </c>
-      <c r="D14" s="195"/>
-      <c r="E14" s="114" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F14" s="128"/>
-    </row>
-    <row r="15" spans="1:6" ht="28.8">
-      <c r="A15" s="101" t="s">
-        <v>999</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>442</v>
-      </c>
-      <c r="C15" s="101" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D15" s="195"/>
-      <c r="E15" s="114" t="s">
-        <v>1033</v>
-      </c>
-      <c r="F15" s="128"/>
-    </row>
-    <row r="16" spans="1:6" ht="43.2">
-      <c r="A16" s="101" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B16" s="101" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C16" s="101" t="s">
+      <c r="D16" s="195" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E16" s="115" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F16" s="129"/>
+    </row>
+    <row r="17" spans="1:6" s="96" customFormat="1" ht="43.2">
+      <c r="A17" s="108" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C17" s="108" t="s">
         <v>1264</v>
       </c>
-      <c r="D16" s="195"/>
-      <c r="E16" s="114" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F16" s="128"/>
-    </row>
-    <row r="17" spans="1:6" s="96" customFormat="1" ht="28.8">
-      <c r="A17" s="108" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B17" s="108" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C17" s="108" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D17" s="196" t="s">
-        <v>1041</v>
-      </c>
+      <c r="D17" s="195"/>
       <c r="E17" s="115" t="s">
         <v>1068</v>
       </c>
       <c r="F17" s="129"/>
     </row>
     <row r="18" spans="1:6" s="96" customFormat="1" ht="43.2">
-      <c r="A18" s="108" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B18" s="108" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C18" s="108" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D18" s="196"/>
-      <c r="E18" s="115" t="s">
+      <c r="A18" s="138" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B18" s="139" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C18" s="139" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D18" s="103" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E18" s="102" t="s">
         <v>1069</v>
       </c>
-      <c r="F18" s="129"/>
-    </row>
-    <row r="19" spans="1:6" s="96" customFormat="1" ht="43.2">
-      <c r="A19" s="138" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B19" s="139" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C19" s="139" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>1040</v>
-      </c>
-      <c r="E19" s="102" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F19" s="130"/>
-    </row>
-    <row r="20" spans="1:6" s="96" customFormat="1" ht="28.8">
+      <c r="F18" s="130"/>
+    </row>
+    <row r="19" spans="1:6" ht="28.8" customHeight="1">
+      <c r="A19" s="109" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B19" s="109" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D19" s="196" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E19" s="116" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F19" s="131"/>
+    </row>
+    <row r="20" spans="1:6" s="96" customFormat="1" ht="28.8" customHeight="1">
       <c r="A20" s="109" t="s">
         <v>1024</v>
       </c>
@@ -15909,11 +15932,9 @@
         <v>1043</v>
       </c>
       <c r="C20" s="109" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D20" s="197" t="s">
-        <v>1039</v>
-      </c>
+        <v>1266</v>
+      </c>
+      <c r="D20" s="197"/>
       <c r="E20" s="116" t="s">
         <v>1035</v>
       </c>
@@ -15927,9 +15948,9 @@
         <v>1044</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D21" s="198"/>
+        <v>1267</v>
+      </c>
+      <c r="D21" s="197"/>
       <c r="E21" s="116" t="s">
         <v>1036</v>
       </c>
@@ -15943,9 +15964,9 @@
         <v>1045</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D22" s="198"/>
+        <v>1268</v>
+      </c>
+      <c r="D22" s="197"/>
       <c r="E22" s="116" t="s">
         <v>1037</v>
       </c>
@@ -15959,9 +15980,9 @@
         <v>1046</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D23" s="199"/>
+        <v>1269</v>
+      </c>
+      <c r="D23" s="198"/>
       <c r="E23" s="116" t="s">
         <v>1038</v>
       </c>
@@ -15975,13 +15996,13 @@
         <v>1020</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D24" s="106" t="s">
         <v>1047</v>
       </c>
       <c r="E24" s="117" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F24" s="132"/>
     </row>
@@ -15993,7 +16014,7 @@
         <v>1050</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D25" s="187" t="s">
         <v>1056</v>
@@ -16011,7 +16032,7 @@
         <v>1051</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="D26" s="187"/>
       <c r="E26" s="118" t="s">
@@ -16027,7 +16048,7 @@
         <v>1053</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D27" s="104" t="s">
         <v>1057</v>
@@ -16045,13 +16066,13 @@
         <v>1060</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="D28" s="188" t="s">
-        <v>1063</v>
+        <v>1286</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F28" s="135"/>
     </row>
@@ -16063,18 +16084,23 @@
         <v>1062</v>
       </c>
       <c r="C29" s="124" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="D29" s="189"/>
       <c r="E29" s="124" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F29" s="135"/>
     </row>
-    <row r="30" spans="1:6" s="96" customFormat="1">
-      <c r="D30" s="122"/>
-      <c r="E30" s="120"/>
-      <c r="F30" s="136"/>
+    <row r="30" spans="1:6" s="96" customFormat="1" ht="57.6">
+      <c r="A30" s="207"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="208" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E30" s="209"/>
+      <c r="F30" s="210"/>
     </row>
     <row r="31" spans="1:6" s="96" customFormat="1">
       <c r="D31" s="122"/>
@@ -16093,9 +16119,9 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="D3:D8"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="D19:D23"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16288,18 +16314,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16321,25 +16347,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 13.xlsx
+++ b/data_management/management/2. harmonization/ENCOVI harmonization/Encovi_comparability across years 2014-2019_MA abril 13.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/macuna_worldbank_org/Documents/Venezuela/ENCOVI/2019/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb550905\OneDrive - WBG\Venezuela\ENCOVI\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{77D8A0D9-5B19-40EE-B1A7-A4599F626D1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EE51320D-5CF1-42F6-9BDF-CD0F9DA43934}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{77D8A0D9-5B19-40EE-B1A7-A4599F626D1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{5BF6C87C-5704-486B-BB27-13199A2C62D5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="805" firstSheet="1" activeTab="6" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" tabRatio="805" firstSheet="10" activeTab="12" xr2:uid="{C17073D6-622F-4055-BD8D-7FC11D1960F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Control_entrevista" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="1333">
   <si>
     <t>Questions</t>
   </si>
@@ -1890,9 +1890,6 @@
     <t>Quién es el informante de esta sección?</t>
   </si>
   <si>
-    <t>informant_even</t>
-  </si>
-  <si>
     <t>s15q1</t>
   </si>
   <si>
@@ -1903,9 +1900,6 @@
     <t>De la lista de eventos acontecidos en su hogar
 desde el año 2017, señale cuáles han sido los 3
 más significativos?</t>
-  </si>
-  <si>
-    <t>evento_1-evento_16</t>
   </si>
   <si>
     <t>contesta_ind_e</t>
@@ -5255,6 +5249,151 @@
   </si>
   <si>
     <t>inla_otros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">informant_emig   </t>
+  </si>
+  <si>
+    <t>hogar_emig</t>
+  </si>
+  <si>
+    <t>numero_emig</t>
+  </si>
+  <si>
+    <t>nombre_emig_*</t>
+  </si>
+  <si>
+    <t>edad_emig_*</t>
+  </si>
+  <si>
+    <t>sexo_emig_*</t>
+  </si>
+  <si>
+    <t>relemig_*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anoemig_*</t>
+  </si>
+  <si>
+    <t>mesemig_*</t>
+  </si>
+  <si>
+    <t>leveledu_emig_*</t>
+  </si>
+  <si>
+    <t>gradedu_emig_*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> regedu_emig_*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anoedu_emig_* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">semedu_emig_* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">paisemig_* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">opaisemig_* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ciuemig_* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">soloemig_* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conemig_* </t>
+  </si>
+  <si>
+    <t>razonemig_*</t>
+  </si>
+  <si>
+    <t>orazonemig_*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ocupaemig_* </t>
+  </si>
+  <si>
+    <t>ocupnemig_*</t>
+  </si>
+  <si>
+    <t>volvioemig_*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> volvioanoemig_* </t>
+  </si>
+  <si>
+    <t>volviomesemig_*</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> miememig_*</t>
+  </si>
+  <si>
+    <t>informant_shock</t>
+  </si>
+  <si>
+    <t>(Relacion con el jefe de hogar)</t>
+  </si>
+  <si>
+    <t>evento_*</t>
+  </si>
+  <si>
+    <t>s15q1_os</t>
+  </si>
+  <si>
+    <t>evento_ot</t>
+  </si>
+  <si>
+    <t>s15q2</t>
+  </si>
+  <si>
+    <t>impevento_*</t>
+  </si>
+  <si>
+    <t>s15q2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> veces_evento_*</t>
+  </si>
+  <si>
+    <t>2a. Cuántas veces ocurrió el evento desde
+2017?</t>
+  </si>
+  <si>
+    <t>s15q2b</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ano_evento_*</t>
+  </si>
+  <si>
+    <t>2b. En qué año ocurrió ?</t>
+  </si>
+  <si>
+    <t>s15q2c</t>
+  </si>
+  <si>
+    <t>reaccion_evento_*</t>
+  </si>
+  <si>
+    <t>2c. Cómo se las arregló su hogar con el
+%rostertitle% más reciente?</t>
+  </si>
+  <si>
+    <t>1:Venta de ganado, 2:Venta de terreno, 3:Venta de propiedad, 4:Envían niños a vivir con amigos, 5:Se retiraron los niños de escuel
+a, 6:Trabajando en otras actividades generadoras de ingreso, 8:Asistencia recibida de amigos y familia, 9:Préstamos de amigos y familia, 10:T
+omó un préstamo de una institución financiera, 12:Miembros del hogar migraron por trabajo, 13:Compras al crédito, 14:Pago retrasado de oblig
+aciones, 15:Vendió la cosecha por adelantado, 16:Reducción del consumo de alimentos, 17:Reducción de consumo de no alimentos, 18:Usa
+ndo ahorros, 19:Asistencia recibida de ONG, 20:Tomó pago por adelantado de empleador, 21:Asistencia recibida del gobierno, 22:Cubierto por
+un seguro, 23:No hizo nada, 24:Otro</t>
+  </si>
+  <si>
+    <t>s15q2c_os</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reaccionot_evento*</t>
   </si>
 </sst>
 </file>
@@ -5609,7 +5748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -6132,6 +6271,18 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6180,6 +6331,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6204,26 +6364,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6562,12 +6710,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="180">
+      <c r="A1" s="184">
         <v>2019</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -6813,10 +6961,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="71" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B15" s="71" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C15" s="71" t="s">
         <v>168</v>
@@ -7038,10 +7186,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="71" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B30" s="71" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C30" s="71"/>
       <c r="D30" s="71"/>
@@ -7133,13 +7281,13 @@
     </row>
     <row r="37" spans="1:9" ht="409.6">
       <c r="A37" s="171" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B37" s="171" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
     </row>
   </sheetData>
@@ -7170,12 +7318,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="180">
+      <c r="A1" s="184">
         <v>2019</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7252,7 +7400,7 @@
         <v>402</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>407</v>
@@ -7420,12 +7568,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="180">
+      <c r="A1" s="184">
         <v>2019</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -7455,299 +7603,299 @@
       <c r="D2" s="61" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="199" t="s">
-        <v>839</v>
-      </c>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
+      <c r="E2" s="206" t="s">
+        <v>837</v>
+      </c>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="206"/>
       <c r="J2" s="51"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A3" s="62" t="s">
+        <v>838</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>839</v>
+      </c>
+      <c r="C3" s="63" t="s">
         <v>840</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>841</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>842</v>
       </c>
       <c r="D3" s="64"/>
       <c r="E3" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J3" s="54"/>
     </row>
     <row r="4" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A4" s="62" t="s">
+        <v>841</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>842</v>
+      </c>
+      <c r="C4" s="63" t="s">
         <v>843</v>
-      </c>
-      <c r="B4" s="62" t="s">
-        <v>844</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>845</v>
       </c>
       <c r="D4" s="64"/>
       <c r="E4" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J4" s="54"/>
     </row>
     <row r="5" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A5" s="62" t="s">
+        <v>844</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>845</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>846</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="D5" s="64" t="s">
         <v>847</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="E5" s="66" t="s">
         <v>848</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>849</v>
       </c>
-      <c r="E5" s="66" t="s">
-        <v>850</v>
-      </c>
-      <c r="F5" s="65" t="s">
-        <v>851</v>
-      </c>
       <c r="G5" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H5" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I5" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J5" s="54"/>
     </row>
     <row r="6" spans="1:10" s="52" customFormat="1" ht="81.599999999999994">
       <c r="A6" s="62" t="s">
+        <v>850</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>851</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>852</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="D6" s="64" t="s">
         <v>853</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="E6" s="66" t="s">
         <v>854</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="F6" s="65" t="s">
         <v>855</v>
       </c>
-      <c r="E6" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>857</v>
-      </c>
       <c r="G6" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" s="52" customFormat="1">
       <c r="A7" s="62" t="s">
+        <v>856</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="C7" s="63" t="s">
         <v>858</v>
-      </c>
-      <c r="B7" s="62" t="s">
-        <v>859</v>
-      </c>
-      <c r="C7" s="63" t="s">
-        <v>860</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I7" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J7" s="54"/>
     </row>
     <row r="8" spans="1:10" s="52" customFormat="1" ht="28.8">
       <c r="A8" s="62" t="s">
+        <v>859</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>860</v>
+      </c>
+      <c r="C8" s="63" t="s">
         <v>861</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>862</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>863</v>
       </c>
       <c r="D8" s="64"/>
       <c r="E8" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I8" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J8" s="54"/>
     </row>
     <row r="9" spans="1:10" s="52" customFormat="1" ht="72">
       <c r="A9" s="62" t="s">
+        <v>862</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>863</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>864</v>
       </c>
-      <c r="B9" s="62" t="s">
-        <v>865</v>
-      </c>
-      <c r="C9" s="63" t="s">
-        <v>866</v>
-      </c>
       <c r="D9" s="64" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H9" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I9" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J9" s="54"/>
     </row>
     <row r="10" spans="1:10" s="52" customFormat="1" ht="30.6">
       <c r="A10" s="62" t="s">
+        <v>865</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>866</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>867</v>
-      </c>
-      <c r="B10" s="62" t="s">
-        <v>868</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>869</v>
       </c>
       <c r="D10" s="64"/>
       <c r="E10" s="66" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H10" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I10" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J10" s="54"/>
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="72">
       <c r="A11" s="62" t="s">
+        <v>870</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>871</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>872</v>
       </c>
-      <c r="B11" s="62" t="s">
-        <v>873</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>874</v>
-      </c>
       <c r="D11" s="64" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E11" s="66" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="F11" s="65" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H11" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I11" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="40.799999999999997">
       <c r="A12" s="62" t="s">
+        <v>873</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>874</v>
+      </c>
+      <c r="C12" s="63" t="s">
         <v>875</v>
-      </c>
-      <c r="B12" s="62" t="s">
-        <v>876</v>
-      </c>
-      <c r="C12" s="63" t="s">
-        <v>877</v>
       </c>
       <c r="D12" s="66"/>
       <c r="E12" s="66" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I12" s="65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="52" customFormat="1">
@@ -8202,12 +8350,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="11" customFormat="1">
-      <c r="A1" s="180">
+      <c r="A1" s="211">
         <v>2019</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8235,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -8245,15 +8393,17 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="69" t="s">
-        <v>723</v>
-      </c>
-      <c r="B3" s="69"/>
+        <v>721</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>1287</v>
+      </c>
       <c r="C3" s="69" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D3" s="69"/>
       <c r="E3" s="71" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F3" s="71"/>
       <c r="G3" s="142"/>
@@ -8262,20 +8412,22 @@
     </row>
     <row r="4" spans="1:9" ht="72">
       <c r="A4" s="69" t="s">
+        <v>723</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="64" t="s">
+      <c r="E4" s="69" t="s">
         <v>726</v>
       </c>
-      <c r="D4" s="64" t="s">
-        <v>727</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>728</v>
-      </c>
       <c r="F4" s="71" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G4" s="142"/>
       <c r="H4" s="142"/>
@@ -8283,18 +8435,20 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>729</v>
-      </c>
-      <c r="B5" s="69"/>
+        <v>727</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>1289</v>
+      </c>
       <c r="C5" s="69" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="D5" s="69"/>
       <c r="E5" s="71" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F5" s="71" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G5" s="142"/>
       <c r="H5" s="142"/>
@@ -8302,18 +8456,20 @@
     </row>
     <row r="6" spans="1:9" ht="87" customHeight="1">
       <c r="A6" s="69" t="s">
-        <v>731</v>
-      </c>
-      <c r="B6" s="69"/>
+        <v>729</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1290</v>
+      </c>
       <c r="C6" s="64" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D6" s="69"/>
       <c r="E6" s="69" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F6" s="71" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G6" s="142"/>
       <c r="H6" s="142"/>
@@ -8321,15 +8477,17 @@
     </row>
     <row r="7" spans="1:9" ht="28.8">
       <c r="A7" s="69" t="s">
-        <v>733</v>
-      </c>
-      <c r="B7" s="69"/>
+        <v>731</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>1291</v>
+      </c>
       <c r="C7" s="64" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D7" s="69"/>
       <c r="E7" s="71" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="142"/>
@@ -8338,17 +8496,19 @@
     </row>
     <row r="8" spans="1:9" ht="28.8">
       <c r="A8" s="69" t="s">
+        <v>733</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>734</v>
+      </c>
+      <c r="D8" s="64" t="s">
         <v>735</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69" t="s">
-        <v>736</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>737</v>
-      </c>
       <c r="E8" s="71" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F8" s="71"/>
       <c r="G8" s="142"/>
@@ -8357,14 +8517,16 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" ht="180" customHeight="1">
       <c r="A9" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>738</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>740</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -8374,11 +8536,13 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="71" t="s">
-        <v>741</v>
-      </c>
-      <c r="B10" s="71"/>
+        <v>739</v>
+      </c>
+      <c r="B10" s="71" t="s">
+        <v>1294</v>
+      </c>
       <c r="C10" s="71" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D10" s="71"/>
       <c r="E10" s="71"/>
@@ -8389,14 +8553,16 @@
     </row>
     <row r="11" spans="1:9" ht="172.8">
       <c r="A11" s="69" t="s">
+        <v>741</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C11" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="D11" s="64" t="s">
         <v>743</v>
-      </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="64" t="s">
-        <v>744</v>
-      </c>
-      <c r="D11" s="64" t="s">
-        <v>745</v>
       </c>
       <c r="E11" s="71"/>
       <c r="F11" s="71"/>
@@ -8406,14 +8572,16 @@
     </row>
     <row r="12" spans="1:9" ht="201.6">
       <c r="A12" s="69" t="s">
+        <v>744</v>
+      </c>
+      <c r="B12" s="69" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>745</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>746</v>
-      </c>
-      <c r="B12" s="69"/>
-      <c r="C12" s="64" t="s">
-        <v>747</v>
-      </c>
-      <c r="D12" s="64" t="s">
-        <v>748</v>
       </c>
       <c r="E12" s="71"/>
       <c r="F12" s="71"/>
@@ -8423,11 +8591,13 @@
     </row>
     <row r="13" spans="1:9" ht="43.2">
       <c r="A13" s="69" t="s">
-        <v>749</v>
-      </c>
-      <c r="B13" s="71"/>
+        <v>747</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>1297</v>
+      </c>
       <c r="C13" s="72" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D13" s="71"/>
       <c r="E13" s="71"/>
@@ -8438,14 +8608,16 @@
     </row>
     <row r="14" spans="1:9" ht="43.2">
       <c r="A14" s="69" t="s">
+        <v>749</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>750</v>
+      </c>
+      <c r="D14" s="72" t="s">
         <v>751</v>
-      </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72" t="s">
-        <v>752</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>753</v>
       </c>
       <c r="E14" s="71"/>
       <c r="F14" s="71"/>
@@ -8455,11 +8627,13 @@
     </row>
     <row r="15" spans="1:9" ht="43.2">
       <c r="A15" s="69" t="s">
-        <v>754</v>
-      </c>
-      <c r="B15" s="71"/>
+        <v>752</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>1299</v>
+      </c>
       <c r="C15" s="72" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
@@ -8470,11 +8644,13 @@
     </row>
     <row r="16" spans="1:9" ht="43.2">
       <c r="A16" s="69" t="s">
-        <v>756</v>
-      </c>
-      <c r="B16" s="71"/>
+        <v>754</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>1300</v>
+      </c>
       <c r="C16" s="72" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D16" s="71"/>
       <c r="E16" s="71"/>
@@ -8485,11 +8661,10 @@
     </row>
     <row r="17" spans="1:9" ht="43.2">
       <c r="A17" s="69" t="s">
-        <v>758</v>
-      </c>
-      <c r="B17" s="71"/>
+        <v>756</v>
+      </c>
       <c r="C17" s="72" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D17" s="71"/>
       <c r="E17" s="71"/>
@@ -8500,14 +8675,16 @@
     </row>
     <row r="18" spans="1:9" ht="230.4">
       <c r="A18" s="69" t="s">
+        <v>758</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="D18" s="64" t="s">
         <v>760</v>
-      </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="64" t="s">
-        <v>761</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>762</v>
       </c>
       <c r="E18" s="71"/>
       <c r="F18" s="71"/>
@@ -8517,11 +8694,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="71" t="s">
-        <v>763</v>
-      </c>
-      <c r="B19" s="71"/>
+        <v>761</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>1302</v>
+      </c>
       <c r="C19" s="71" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
@@ -8532,11 +8711,13 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="71" t="s">
-        <v>765</v>
-      </c>
-      <c r="B20" s="71"/>
+        <v>763</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>1303</v>
+      </c>
       <c r="C20" s="72" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
@@ -8547,14 +8728,16 @@
     </row>
     <row r="21" spans="1:9" s="6" customFormat="1" ht="28.8">
       <c r="A21" s="69" t="s">
-        <v>767</v>
-      </c>
-      <c r="B21" s="69"/>
+        <v>765</v>
+      </c>
+      <c r="B21" s="69" t="s">
+        <v>1304</v>
+      </c>
       <c r="C21" s="69" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E21" s="69"/>
       <c r="F21" s="69"/>
@@ -8564,14 +8747,16 @@
     </row>
     <row r="22" spans="1:9" ht="86.4">
       <c r="A22" s="69" t="s">
+        <v>767</v>
+      </c>
+      <c r="B22" s="69" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C22" s="64" t="s">
+        <v>768</v>
+      </c>
+      <c r="D22" s="64" t="s">
         <v>769</v>
-      </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="64" t="s">
-        <v>770</v>
-      </c>
-      <c r="D22" s="64" t="s">
-        <v>771</v>
       </c>
       <c r="E22" s="71"/>
       <c r="F22" s="71"/>
@@ -8581,17 +8766,19 @@
     </row>
     <row r="23" spans="1:9" ht="187.2">
       <c r="A23" s="69" t="s">
+        <v>770</v>
+      </c>
+      <c r="B23" s="69" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C23" s="64" t="s">
+        <v>771</v>
+      </c>
+      <c r="D23" s="64" t="s">
         <v>772</v>
       </c>
-      <c r="B23" s="69"/>
-      <c r="C23" s="64" t="s">
-        <v>773</v>
-      </c>
-      <c r="D23" s="64" t="s">
-        <v>774</v>
-      </c>
       <c r="E23" s="64" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F23" s="71"/>
       <c r="G23" s="142"/>
@@ -8600,11 +8787,13 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="71" t="s">
-        <v>775</v>
-      </c>
-      <c r="B24" s="71"/>
+        <v>773</v>
+      </c>
+      <c r="B24" s="71" t="s">
+        <v>1307</v>
+      </c>
       <c r="C24" s="71" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
@@ -8615,14 +8804,16 @@
     </row>
     <row r="25" spans="1:9" s="6" customFormat="1" ht="374.55" customHeight="1">
       <c r="A25" s="69" t="s">
+        <v>775</v>
+      </c>
+      <c r="B25" s="69" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>776</v>
+      </c>
+      <c r="D25" s="64" t="s">
         <v>777</v>
-      </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="64" t="s">
-        <v>778</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>779</v>
       </c>
       <c r="E25" s="69"/>
       <c r="F25" s="69"/>
@@ -8632,14 +8823,16 @@
     </row>
     <row r="26" spans="1:9" ht="379.05" customHeight="1">
       <c r="A26" s="64" t="s">
-        <v>780</v>
-      </c>
-      <c r="B26" s="64"/>
+        <v>778</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>1309</v>
+      </c>
       <c r="C26" s="64" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E26" s="71"/>
       <c r="F26" s="71"/>
@@ -8649,14 +8842,16 @@
     </row>
     <row r="27" spans="1:9" ht="43.2">
       <c r="A27" s="64" t="s">
-        <v>782</v>
-      </c>
-      <c r="B27" s="71"/>
+        <v>780</v>
+      </c>
+      <c r="B27" s="72" t="s">
+        <v>1310</v>
+      </c>
       <c r="C27" s="72" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D27" s="64" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E27" s="71"/>
       <c r="F27" s="71"/>
@@ -8666,11 +8861,13 @@
     </row>
     <row r="28" spans="1:9" ht="28.8">
       <c r="A28" s="64" t="s">
-        <v>784</v>
-      </c>
-      <c r="B28" s="71"/>
+        <v>782</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>1311</v>
+      </c>
       <c r="C28" s="64" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="71"/>
@@ -8681,14 +8878,16 @@
     </row>
     <row r="29" spans="1:9" ht="172.8">
       <c r="A29" s="64" t="s">
-        <v>786</v>
-      </c>
-      <c r="B29" s="71"/>
+        <v>784</v>
+      </c>
+      <c r="B29" s="71" t="s">
+        <v>1312</v>
+      </c>
       <c r="C29" s="64" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D29" s="72" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E29" s="71"/>
       <c r="F29" s="71"/>
@@ -8698,14 +8897,16 @@
     </row>
     <row r="30" spans="1:9" ht="43.2">
       <c r="A30" s="64" t="s">
-        <v>788</v>
-      </c>
-      <c r="B30" s="71"/>
+        <v>786</v>
+      </c>
+      <c r="B30" s="71" t="s">
+        <v>1313</v>
+      </c>
       <c r="C30" s="72" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E30" s="71"/>
       <c r="F30" s="71"/>
@@ -8726,25 +8927,26 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="42.77734375" customWidth="1"/>
+    <col min="1" max="2" width="32" style="6" customWidth="1"/>
+    <col min="3" max="3" width="35" style="6" customWidth="1"/>
+    <col min="4" max="4" width="44.44140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="60">
+      <c r="A1" s="211">
         <v>2019</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="213"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -8781,54 +8983,121 @@
       <c r="I2" s="81"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="69" t="s">
         <v>429</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>431</v>
-      </c>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="69" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>430</v>
       </c>
-      <c r="D3" s="71"/>
+      <c r="D3" s="69" t="s">
+        <v>1315</v>
+      </c>
       <c r="E3" s="71"/>
       <c r="F3" s="71"/>
       <c r="G3" s="71"/>
       <c r="H3" s="71"/>
     </row>
-    <row r="4" spans="1:9" ht="388.8">
+    <row r="4" spans="1:9" ht="374.4">
       <c r="A4" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>432</v>
       </c>
-      <c r="B4" s="69" t="s">
-        <v>435</v>
-      </c>
-      <c r="C4" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>1278</v>
+      <c r="D4" s="64" t="s">
+        <v>1276</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
     </row>
-    <row r="5" spans="1:9" ht="388.8">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="72" t="s">
-        <v>1278</v>
-      </c>
+    <row r="5" spans="1:9">
+      <c r="A5" s="69" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="71"/>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
     </row>
+    <row r="6" spans="1:9" ht="374.4">
+      <c r="A6" s="69" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" s="64" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2">
+      <c r="A7" s="69" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D7" s="69"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="69" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D8" s="69"/>
+    </row>
+    <row r="9" spans="1:9" ht="230.4">
+      <c r="A9" s="69" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B9" s="69" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D9" s="64" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="69" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8848,12 +9117,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="37" customFormat="1">
-      <c r="A1" s="200">
+      <c r="A1" s="207">
         <v>2019</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="201"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="208"/>
     </row>
     <row r="2" spans="1:5" s="50" customFormat="1" ht="43.2">
       <c r="A2" s="94" t="s">
@@ -8866,36 +9135,36 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="57.6">
       <c r="A3" s="71" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B3" s="71" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C3" s="72" t="s">
         <v>1086</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C3" s="72" t="s">
+      <c r="D3" s="71" t="s">
         <v>1088</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6">
       <c r="A4" s="71" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>1087</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C4" s="72" t="s">
+      <c r="D4" s="72" t="s">
         <v>1089</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>1091</v>
       </c>
     </row>
   </sheetData>
@@ -8929,13 +9198,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="37" customFormat="1">
-      <c r="A1" s="200">
+      <c r="A1" s="207">
         <v>2019</v>
       </c>
-      <c r="B1" s="200"/>
-      <c r="C1" s="200"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="201"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="208"/>
       <c r="F1" s="60">
         <v>2018</v>
       </c>
@@ -8953,10 +9222,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="50" customFormat="1" ht="43.2">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="210" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="203"/>
+      <c r="B2" s="210"/>
       <c r="C2" s="61" t="s">
         <v>128</v>
       </c>
@@ -8964,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="61" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
@@ -8974,419 +9243,419 @@
       <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="72">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="209" t="s">
+        <v>883</v>
+      </c>
+      <c r="B3" s="209"/>
+      <c r="C3" s="71" t="s">
+        <v>897</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>910</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>925</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>926</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>941</v>
+      </c>
+      <c r="H3" s="72" t="s">
+        <v>949</v>
+      </c>
+      <c r="I3" s="87" t="s">
+        <v>950</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8">
+      <c r="A4" s="209" t="s">
+        <v>913</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>884</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>898</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>911</v>
+      </c>
+      <c r="E4" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>929</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="I4" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="115.2">
+      <c r="A5" s="209"/>
+      <c r="B5" s="70" t="s">
         <v>885</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="71" t="s">
+      <c r="C5" s="70" t="s">
         <v>899</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D5" s="70" t="s">
         <v>912</v>
       </c>
-      <c r="E3" s="72" t="s">
-        <v>927</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>928</v>
-      </c>
-      <c r="G3" s="72" t="s">
+      <c r="E5" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>930</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>942</v>
+      </c>
+      <c r="H5" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="I5" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="144">
+      <c r="A6" s="209"/>
+      <c r="B6" s="70" t="s">
+        <v>886</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>900</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>914</v>
+      </c>
+      <c r="E6" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>931</v>
+      </c>
+      <c r="G6" s="70" t="s">
         <v>943</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H6" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="I6" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="J6" s="85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="144">
+      <c r="A7" s="209"/>
+      <c r="B7" s="70" t="s">
+        <v>887</v>
+      </c>
+      <c r="C7" s="70" t="s">
+        <v>901</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>915</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="F7" s="70" t="s">
+        <v>932</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>943</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="I7" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" s="85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="187.2">
+      <c r="A8" s="209"/>
+      <c r="B8" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>902</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>916</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>933</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>946</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="I8" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="J8" s="85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="302.39999999999998">
+      <c r="A9" s="209"/>
+      <c r="B9" s="70" t="s">
+        <v>889</v>
+      </c>
+      <c r="C9" s="70" t="s">
+        <v>903</v>
+      </c>
+      <c r="D9" s="70" t="s">
+        <v>917</v>
+      </c>
+      <c r="E9" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>934</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>944</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>948</v>
+      </c>
+      <c r="I9" s="85" t="s">
         <v>951</v>
       </c>
-      <c r="I3" s="87" t="s">
-        <v>952</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8">
-      <c r="A4" s="202" t="s">
-        <v>915</v>
-      </c>
-      <c r="B4" s="70" t="s">
-        <v>886</v>
-      </c>
-      <c r="C4" s="70" t="s">
-        <v>900</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>913</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>931</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="H4" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="I4" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="J4" s="70" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="115.2">
-      <c r="A5" s="202"/>
-      <c r="B5" s="70" t="s">
-        <v>887</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>901</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>914</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>932</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>944</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="I5" s="70" t="s">
-        <v>442</v>
-      </c>
-      <c r="J5" s="70" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="144">
-      <c r="A6" s="202"/>
-      <c r="B6" s="70" t="s">
-        <v>888</v>
-      </c>
-      <c r="C6" s="70" t="s">
-        <v>902</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>916</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>933</v>
-      </c>
-      <c r="G6" s="70" t="s">
+      <c r="J9" s="85" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
+      <c r="A10" s="209"/>
+      <c r="B10" s="86" t="s">
+        <v>890</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>904</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>918</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>925</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>935</v>
+      </c>
+      <c r="G10" s="86" t="s">
         <v>945</v>
       </c>
-      <c r="H6" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="I6" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="J6" s="85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="144">
-      <c r="A7" s="202"/>
-      <c r="B7" s="70" t="s">
-        <v>889</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>903</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>917</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>934</v>
-      </c>
-      <c r="G7" s="70" t="s">
-        <v>945</v>
-      </c>
-      <c r="H7" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="I7" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="J7" s="85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="187.2">
-      <c r="A8" s="202"/>
-      <c r="B8" s="70" t="s">
-        <v>890</v>
-      </c>
-      <c r="C8" s="70" t="s">
-        <v>904</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>918</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>935</v>
-      </c>
-      <c r="G8" s="70" t="s">
+      <c r="H10" s="85" t="s">
         <v>948</v>
       </c>
-      <c r="H8" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="I8" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="302.39999999999998">
-      <c r="A9" s="202"/>
-      <c r="B9" s="70" t="s">
+      <c r="I10" s="85" t="s">
+        <v>951</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="187.2">
+      <c r="A11" s="209"/>
+      <c r="B11" s="70" t="s">
         <v>891</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C11" s="70" t="s">
         <v>905</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D11" s="70" t="s">
         <v>919</v>
       </c>
-      <c r="E9" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="F9" s="70" t="s">
+      <c r="E11" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="F11" s="70" t="s">
         <v>936</v>
       </c>
-      <c r="G9" s="70" t="s">
+      <c r="G11" s="70" t="s">
         <v>946</v>
       </c>
-      <c r="H9" s="85" t="s">
-        <v>950</v>
-      </c>
-      <c r="I9" s="85" t="s">
-        <v>953</v>
-      </c>
-      <c r="J9" s="85" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="82" customFormat="1" ht="259.2">
-      <c r="A10" s="202"/>
-      <c r="B10" s="86" t="s">
+      <c r="H11" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="I11" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="144">
+      <c r="A12" s="209"/>
+      <c r="B12" s="70" t="s">
         <v>892</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C12" s="70" t="s">
         <v>906</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="D12" s="70" t="s">
         <v>920</v>
       </c>
-      <c r="E10" s="86" t="s">
-        <v>927</v>
-      </c>
-      <c r="F10" s="86" t="s">
+      <c r="E12" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="F12" s="70" t="s">
         <v>937</v>
       </c>
-      <c r="G10" s="86" t="s">
+      <c r="G12" s="70" t="s">
+        <v>943</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="I12" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="J12" s="85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="144">
+      <c r="A13" s="209"/>
+      <c r="B13" s="70" t="s">
+        <v>893</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>907</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>921</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>938</v>
+      </c>
+      <c r="G13" s="70" t="s">
         <v>947</v>
       </c>
-      <c r="H10" s="85" t="s">
-        <v>950</v>
-      </c>
-      <c r="I10" s="85" t="s">
-        <v>953</v>
-      </c>
-      <c r="J10" s="85" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="187.2">
-      <c r="A11" s="202"/>
-      <c r="B11" s="70" t="s">
-        <v>893</v>
-      </c>
-      <c r="C11" s="70" t="s">
-        <v>907</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>921</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>938</v>
-      </c>
-      <c r="G11" s="70" t="s">
-        <v>948</v>
-      </c>
-      <c r="H11" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="I11" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="J11" s="85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="144">
-      <c r="A12" s="202"/>
-      <c r="B12" s="70" t="s">
+      <c r="H13" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>440</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.8">
+      <c r="A14" s="209"/>
+      <c r="B14" s="70" t="s">
         <v>894</v>
       </c>
-      <c r="C12" s="70" t="s">
+      <c r="C14" s="70" t="s">
         <v>908</v>
       </c>
-      <c r="D12" s="70" t="s">
+      <c r="D14" s="70" t="s">
         <v>922</v>
       </c>
-      <c r="E12" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="F12" s="70" t="s">
+      <c r="E14" s="70" t="s">
+        <v>925</v>
+      </c>
+      <c r="F14" s="70" t="s">
         <v>939</v>
-      </c>
-      <c r="G12" s="70" t="s">
-        <v>945</v>
-      </c>
-      <c r="H12" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="I12" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="J12" s="85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="144">
-      <c r="A13" s="202"/>
-      <c r="B13" s="70" t="s">
-        <v>895</v>
-      </c>
-      <c r="C13" s="70" t="s">
-        <v>909</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>923</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>940</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>949</v>
-      </c>
-      <c r="H13" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="I13" s="85" t="s">
-        <v>442</v>
-      </c>
-      <c r="J13" s="85" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="28.8">
-      <c r="A14" s="202"/>
-      <c r="B14" s="70" t="s">
-        <v>896</v>
-      </c>
-      <c r="C14" s="70" t="s">
-        <v>910</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>924</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>927</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>941</v>
       </c>
       <c r="G14" s="70"/>
       <c r="H14" s="85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I14" s="85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J14" s="85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="28.8">
-      <c r="A15" s="202"/>
+      <c r="A15" s="209"/>
       <c r="B15" s="70" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D15" s="70" t="s">
+        <v>923</v>
+      </c>
+      <c r="E15" s="70" t="s">
         <v>925</v>
       </c>
-      <c r="E15" s="70" t="s">
-        <v>927</v>
-      </c>
       <c r="F15" s="70" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="G15" s="70"/>
       <c r="H15" s="85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I15" s="85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J15" s="85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="43.2">
-      <c r="A16" s="202" t="s">
-        <v>898</v>
-      </c>
-      <c r="B16" s="202"/>
+      <c r="A16" s="209" t="s">
+        <v>896</v>
+      </c>
+      <c r="B16" s="209"/>
       <c r="C16" s="70" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="D16" s="70" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F16" s="70" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G16" s="70"/>
       <c r="H16" s="85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I16" s="85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J16" s="85" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -9423,12 +9692,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="90" customFormat="1">
-      <c r="A1" s="190">
+      <c r="A1" s="194">
         <v>2019</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
       <c r="E1" s="84">
         <v>2018</v>
       </c>
@@ -9456,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="61" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E2" s="83"/>
       <c r="F2" s="83"/>
@@ -9467,16 +9736,16 @@
     </row>
     <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="72" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E3" s="91"/>
       <c r="F3" s="91"/>
@@ -9486,20 +9755,20 @@
     </row>
     <row r="4" spans="1:10" ht="87">
       <c r="A4" s="72" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="E4" s="91"/>
       <c r="F4" s="93" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="G4" s="91"/>
       <c r="H4" s="91"/>
@@ -9507,16 +9776,16 @@
     </row>
     <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="72" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D5" s="72" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E5" s="91"/>
       <c r="F5" s="92"/>
@@ -9526,16 +9795,16 @@
     </row>
     <row r="6" spans="1:10" ht="43.2">
       <c r="A6" s="72" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D6" s="72" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E6" s="91"/>
       <c r="F6" s="91"/>
@@ -9545,13 +9814,13 @@
     </row>
     <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="72" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B7" s="72" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C7" s="72" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D7" s="72"/>
       <c r="E7" s="91"/>
@@ -9562,13 +9831,13 @@
     </row>
     <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="72" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="91"/>
@@ -9579,16 +9848,16 @@
     </row>
     <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="72" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91"/>
@@ -9598,16 +9867,16 @@
     </row>
     <row r="10" spans="1:10" ht="57.6">
       <c r="A10" s="72" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C10" s="72" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D10" s="72" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E10" s="91"/>
       <c r="F10" s="91"/>
@@ -9617,16 +9886,16 @@
     </row>
     <row r="11" spans="1:10" ht="57.6">
       <c r="A11" s="72" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B11" s="72" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C11" s="72" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E11" s="91"/>
       <c r="F11" s="91"/>
@@ -9636,16 +9905,16 @@
     </row>
     <row r="12" spans="1:10" ht="57.6">
       <c r="A12" s="72" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C12" s="72" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E12" s="91"/>
       <c r="F12" s="91"/>
@@ -9655,13 +9924,13 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="72" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C13" s="72" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D13" s="72"/>
       <c r="E13" s="91"/>
@@ -9672,13 +9941,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="72" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C14" s="72" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D14" s="72"/>
       <c r="E14" s="91"/>
@@ -9689,13 +9958,13 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="72" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="91"/>
@@ -9730,12 +9999,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1">
-      <c r="A1" s="180">
+      <c r="A1" s="184">
         <v>2019</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9779,7 +10048,7 @@
         <v>213</v>
       </c>
       <c r="C3" s="72" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D3" s="71"/>
       <c r="E3" s="71"/>
@@ -9796,10 +10065,10 @@
         <v>214</v>
       </c>
       <c r="C4" s="72" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
@@ -9815,7 +10084,7 @@
         <v>215</v>
       </c>
       <c r="C5" s="72" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="D5" s="71"/>
       <c r="E5" s="71"/>
@@ -9832,7 +10101,7 @@
         <v>216</v>
       </c>
       <c r="C6" s="72" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D6" s="71"/>
       <c r="E6" s="71"/>
@@ -9870,12 +10139,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1">
-      <c r="A1" s="180">
+      <c r="A1" s="184">
         <v>2019</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -9903,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -9958,13 +10227,13 @@
         <v>295</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="C5" s="69" t="s">
         <v>296</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E5" s="69" t="s">
         <v>291</v>
@@ -10094,7 +10363,7 @@
         <v>316</v>
       </c>
       <c r="D11" s="64" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E11" s="69"/>
       <c r="F11" s="69"/>
@@ -10113,7 +10382,7 @@
         <v>318</v>
       </c>
       <c r="D12" s="64" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
@@ -10145,13 +10414,13 @@
         <v>323</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>324</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="64"/>
@@ -10189,7 +10458,7 @@
         <v>329</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E16" s="64"/>
       <c r="F16" s="64"/>
@@ -10208,7 +10477,7 @@
         <v>332</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E17" s="64"/>
       <c r="F17" s="64"/>
@@ -10495,12 +10764,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1">
-      <c r="A1" s="180">
+      <c r="A1" s="184">
         <v>2019</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -10541,7 +10810,7 @@
         <v>90</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C3" s="64" t="s">
         <v>89</v>
@@ -11346,12 +11615,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1">
-      <c r="A1" s="181">
+      <c r="A1" s="185">
         <v>2019</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="181"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -11392,7 +11661,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>1</v>
@@ -11948,7 +12217,7 @@
         <v>72</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>29</v>
@@ -12001,12 +12270,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="37" customFormat="1">
-      <c r="A1" s="180">
+      <c r="A1" s="184">
         <v>2019</v>
       </c>
-      <c r="B1" s="180"/>
-      <c r="C1" s="180"/>
-      <c r="D1" s="180"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
       <c r="E1" s="60">
         <v>2018</v>
       </c>
@@ -12034,7 +12303,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="67" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E2" s="68"/>
       <c r="F2" s="68"/>
@@ -12044,241 +12313,241 @@
     </row>
     <row r="3" spans="1:9" ht="72">
       <c r="A3" s="69" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>437</v>
+      </c>
+      <c r="C3" s="64" t="s">
         <v>438</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>439</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>440</v>
-      </c>
       <c r="D3" s="64" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E3" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F3" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G3" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H3" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I3" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="201.6">
       <c r="A4" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" s="64" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="D4" s="64" t="s">
         <v>444</v>
       </c>
-      <c r="C4" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" s="64" t="s">
-        <v>446</v>
-      </c>
       <c r="E4" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F4" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G4" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H4" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="69" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="B5" s="69" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D5" s="64"/>
       <c r="E5" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I5" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="129.6">
       <c r="A6" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>446</v>
+      </c>
+      <c r="C6" s="64" t="s">
         <v>447</v>
       </c>
-      <c r="B6" s="69" t="s">
-        <v>448</v>
-      </c>
-      <c r="C6" s="64" t="s">
-        <v>449</v>
-      </c>
       <c r="D6" s="64" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="187.2">
       <c r="A7" s="69" t="s">
+        <v>448</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>449</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>450</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="D7" s="64" t="s">
         <v>451</v>
       </c>
-      <c r="C7" s="64" t="s">
-        <v>452</v>
-      </c>
-      <c r="D7" s="64" t="s">
-        <v>453</v>
-      </c>
       <c r="E7" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F7" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="100.8">
       <c r="A8" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>453</v>
+      </c>
+      <c r="C8" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="D8" s="64" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="64" t="s">
-        <v>456</v>
-      </c>
-      <c r="D8" s="64" t="s">
-        <v>457</v>
-      </c>
       <c r="E8" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F8" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G8" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H8" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="69" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C9" s="64" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D9" s="64"/>
       <c r="E9" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F9" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G9" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H9" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="B10" s="69" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C10" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="D10" s="64" t="s">
         <v>458</v>
       </c>
-      <c r="B10" s="69" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C10" s="64" t="s">
-        <v>459</v>
-      </c>
-      <c r="D10" s="64" t="s">
-        <v>460</v>
-      </c>
       <c r="E10" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="64" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="B11" s="69" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>1115</v>
-      </c>
-      <c r="C11" s="64" t="s">
-        <v>1117</v>
       </c>
       <c r="D11" s="64"/>
       <c r="E11" s="64"/>
@@ -12289,214 +12558,214 @@
     </row>
     <row r="12" spans="1:9" s="1" customFormat="1" ht="43.8" customHeight="1">
       <c r="A12" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="64" t="s">
         <v>461</v>
       </c>
-      <c r="B12" s="64" t="s">
-        <v>462</v>
-      </c>
-      <c r="C12" s="64" t="s">
-        <v>463</v>
-      </c>
       <c r="D12" s="64" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="1" customFormat="1" ht="28.8">
       <c r="A13" s="64" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" s="64" t="s">
         <v>464</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>465</v>
-      </c>
-      <c r="C13" s="64" t="s">
-        <v>466</v>
       </c>
       <c r="D13" s="64"/>
       <c r="E13" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="14.4" customHeight="1">
       <c r="A14" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>466</v>
+      </c>
+      <c r="C14" s="64" t="s">
         <v>467</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="D14" s="64" t="s">
         <v>468</v>
       </c>
-      <c r="C14" s="64" t="s">
-        <v>469</v>
-      </c>
-      <c r="D14" s="64" t="s">
-        <v>470</v>
-      </c>
       <c r="E14" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="1" customFormat="1" ht="72">
       <c r="A15" s="64" t="s">
+        <v>469</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>470</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>471</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="D15" s="64" t="s">
         <v>472</v>
       </c>
-      <c r="C15" s="64" t="s">
-        <v>473</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>474</v>
-      </c>
       <c r="E15" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="57.6">
       <c r="A16" s="69" t="s">
+        <v>473</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>474</v>
+      </c>
+      <c r="C16" s="64" t="s">
         <v>475</v>
       </c>
-      <c r="B16" s="69" t="s">
-        <v>476</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>477</v>
-      </c>
       <c r="D16" s="64" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="115.2">
       <c r="A17" s="69" t="s">
+        <v>476</v>
+      </c>
+      <c r="B17" s="69" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="D17" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="C17" s="64" t="s">
-        <v>480</v>
-      </c>
-      <c r="D17" s="64" t="s">
-        <v>481</v>
-      </c>
       <c r="E17" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="100.8">
       <c r="A18" s="69" t="s">
+        <v>480</v>
+      </c>
+      <c r="B18" s="69" t="s">
+        <v>481</v>
+      </c>
+      <c r="C18" s="64" t="s">
         <v>482</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="D18" s="64" t="s">
         <v>483</v>
       </c>
-      <c r="C18" s="64" t="s">
-        <v>484</v>
-      </c>
-      <c r="D18" s="64" t="s">
-        <v>485</v>
-      </c>
       <c r="E18" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G18" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="69" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D19" s="64"/>
       <c r="E19" s="64"/>
@@ -12507,437 +12776,437 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="69" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C20" s="64" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D20" s="64"/>
       <c r="E20" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.8">
       <c r="A21" s="69" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C21" s="64" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D21" s="64" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E21" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F21" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G21" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H21" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I21" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="72">
       <c r="A22" s="69" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F22" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G22" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H22" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I22" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="43.2">
       <c r="A23" s="69" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B23" s="69" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C23" s="69" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="69" t="s">
+        <v>492</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C24" s="69" t="s">
         <v>494</v>
-      </c>
-      <c r="B24" s="69" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C24" s="69" t="s">
-        <v>496</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G24" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H24" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I24" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.8">
       <c r="A25" s="69" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B25" s="69" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C25" s="69" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D25" s="64" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F25" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G25" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H25" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I25" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="72">
       <c r="A26" s="69" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B26" s="69" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D26" s="64" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E26" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F26" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G26" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H26" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I26" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="43.2">
       <c r="A27" s="69" t="s">
+        <v>499</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>500</v>
+      </c>
+      <c r="C27" s="69" t="s">
         <v>501</v>
       </c>
-      <c r="B27" s="69" t="s">
-        <v>502</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>503</v>
-      </c>
       <c r="D27" s="64" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E27" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F27" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G27" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H27" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I27" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="69" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B28" s="69" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D28" s="69"/>
       <c r="E28" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G28" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H28" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I28" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.8">
       <c r="A29" s="69" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B29" s="69" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C29" s="64" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D29" s="64" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E29" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F29" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G29" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H29" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I29" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="72">
       <c r="A30" s="69" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B30" s="69" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D30" s="64" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E30" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F30" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G30" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H30" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I30" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="72">
       <c r="A31" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="B31" s="69" t="s">
+        <v>509</v>
+      </c>
+      <c r="C31" s="64" t="s">
         <v>510</v>
       </c>
-      <c r="B31" s="69" t="s">
+      <c r="D31" s="64" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E31" s="64" t="s">
         <v>511</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="F31" s="64" t="s">
+        <v>511</v>
+      </c>
+      <c r="G31" s="64" t="s">
         <v>512</v>
       </c>
-      <c r="D31" s="64" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E31" s="64" t="s">
+      <c r="H31" s="64" t="s">
         <v>513</v>
       </c>
-      <c r="F31" s="64" t="s">
-        <v>513</v>
-      </c>
-      <c r="G31" s="64" t="s">
+      <c r="I31" s="64" t="s">
         <v>514</v>
-      </c>
-      <c r="H31" s="64" t="s">
-        <v>515</v>
-      </c>
-      <c r="I31" s="64" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="144">
       <c r="A32" s="69" t="s">
+        <v>515</v>
+      </c>
+      <c r="B32" s="69" t="s">
+        <v>516</v>
+      </c>
+      <c r="C32" s="64" t="s">
         <v>517</v>
       </c>
-      <c r="B32" s="69" t="s">
+      <c r="D32" s="64" t="s">
         <v>518</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="E32" s="64" t="s">
         <v>519</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="F32" s="64" t="s">
+        <v>519</v>
+      </c>
+      <c r="G32" s="64" t="s">
         <v>520</v>
       </c>
-      <c r="E32" s="64" t="s">
+      <c r="H32" s="64" t="s">
         <v>521</v>
       </c>
-      <c r="F32" s="64" t="s">
-        <v>521</v>
-      </c>
-      <c r="G32" s="64" t="s">
+      <c r="I32" s="64" t="s">
         <v>522</v>
-      </c>
-      <c r="H32" s="64" t="s">
-        <v>523</v>
-      </c>
-      <c r="I32" s="64" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="43.2">
       <c r="A33" s="69" t="s">
+        <v>523</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>524</v>
+      </c>
+      <c r="C33" s="64" t="s">
         <v>525</v>
       </c>
-      <c r="B33" s="69" t="s">
-        <v>526</v>
-      </c>
-      <c r="C33" s="64" t="s">
-        <v>527</v>
-      </c>
       <c r="D33" s="64" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="E33" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F33" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G33" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H33" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I33" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="72">
       <c r="A34" s="69" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C34" s="64" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D34" s="64" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E34" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F34" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G34" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H34" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I34" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.8">
       <c r="A35" s="69"/>
       <c r="B35" s="64" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
@@ -12949,87 +13218,87 @@
     </row>
     <row r="36" spans="1:9" ht="43.2">
       <c r="A36" s="69" t="s">
+        <v>528</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>529</v>
+      </c>
+      <c r="C36" s="64" t="s">
         <v>530</v>
-      </c>
-      <c r="B36" s="64" t="s">
-        <v>531</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>532</v>
       </c>
       <c r="D36" s="69"/>
       <c r="E36" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F36" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G36" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H36" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I36" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="28.8">
       <c r="A37" s="69" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B37" s="69" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C37" s="64" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D37" s="64" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E37" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F37" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G37" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H37" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I37" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="72">
       <c r="A38" s="69" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B38" s="69" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C38" s="64" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D38" s="64" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E38" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F38" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G38" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H38" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I38" s="64" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -13060,7 +13329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DF78F7-F282-409F-A3BB-6F7024B1FD58}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13083,12 +13352,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="37" customFormat="1">
-      <c r="A1" s="182">
+      <c r="A1" s="186">
         <v>2019</v>
       </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="59">
         <v>2018</v>
       </c>
@@ -13118,294 +13387,294 @@
       <c r="D2" s="79" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="183" t="s">
-        <v>537</v>
-      </c>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="185"/>
+      <c r="E2" s="187" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="189"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" ht="106.2" customHeight="1">
       <c r="A3" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="D3" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="F3" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>542</v>
-      </c>
       <c r="G3" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="I3" s="39" t="s">
         <v>790</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>792</v>
       </c>
       <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10" ht="153">
       <c r="A4" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="D4" s="38" t="s">
         <v>544</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="E4" s="16" t="s">
         <v>545</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>547</v>
-      </c>
       <c r="F4" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G4" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="I4" s="39" t="s">
         <v>790</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="I4" s="39" t="s">
-        <v>792</v>
       </c>
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="153">
       <c r="A5" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>548</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>550</v>
-      </c>
       <c r="D5" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G5" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="I5" s="39" t="s">
         <v>790</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>792</v>
       </c>
       <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="255">
       <c r="A6" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="E6" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>554</v>
-      </c>
       <c r="F6" s="16" t="s">
+        <v>791</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="H6" s="40" t="s">
         <v>793</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="I6" s="39" t="s">
         <v>794</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>795</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>796</v>
       </c>
       <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="96" customHeight="1">
       <c r="A7" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>555</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>557</v>
-      </c>
       <c r="F7" s="16" t="s">
+        <v>795</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>796</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>797</v>
       </c>
-      <c r="G7" s="39" t="s">
-        <v>798</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>799</v>
-      </c>
       <c r="I7" s="39" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="31.2" customHeight="1">
       <c r="A8" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>558</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="38" t="s">
+        <v>439</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>560</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>561</v>
-      </c>
       <c r="F8" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="I8" s="16" t="s">
         <v>790</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>792</v>
       </c>
       <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="31.2" customHeight="1">
       <c r="A9" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>564</v>
-      </c>
       <c r="D9" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>790</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="102">
       <c r="A10" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>565</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="38" t="s">
         <v>566</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="E10" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="F10" s="16" t="s">
         <v>568</v>
       </c>
-      <c r="E10" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>570</v>
-      </c>
       <c r="G10" s="16" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I10" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.4">
       <c r="A11" s="144" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B11" s="144" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E11" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F11" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="27.6">
       <c r="A12" s="144" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B12" s="144" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
@@ -13415,16 +13684,16 @@
     </row>
     <row r="13" spans="1:10" ht="27.6">
       <c r="A13" s="144" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B13" s="144" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
@@ -13434,16 +13703,16 @@
     </row>
     <row r="14" spans="1:10" ht="41.4">
       <c r="A14" s="144" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B14" s="144" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
@@ -13453,16 +13722,16 @@
     </row>
     <row r="15" spans="1:10" ht="41.4">
       <c r="A15" s="144" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B15" s="144" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
@@ -13472,16 +13741,16 @@
     </row>
     <row r="16" spans="1:10" ht="41.4">
       <c r="A16" s="144" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="B16" s="144" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
@@ -13491,16 +13760,16 @@
     </row>
     <row r="17" spans="1:9" ht="27.6">
       <c r="A17" s="144" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="B17" s="144" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
@@ -13510,16 +13779,16 @@
     </row>
     <row r="18" spans="1:9" ht="27.6">
       <c r="A18" s="144" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B18" s="144" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
@@ -13529,385 +13798,385 @@
     </row>
     <row r="19" spans="1:9" ht="27.6">
       <c r="A19" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>573</v>
-      </c>
       <c r="D19" s="38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E19" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F19" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="91.8">
       <c r="A20" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>574</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="D20" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="E20" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="D20" s="38" t="s">
-        <v>577</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>578</v>
-      </c>
       <c r="F20" s="16" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="41.4">
       <c r="A21" s="14" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>1144</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>1146</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="153">
       <c r="A22" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="D22" s="38" t="s">
         <v>580</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="E22" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="D22" s="38" t="s">
-        <v>582</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>583</v>
-      </c>
       <c r="F22" s="16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G22" s="16" t="s">
+        <v>788</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>790</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="142.80000000000001">
       <c r="A23" s="19" t="s">
+        <v>582</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="D23" s="41" t="s">
         <v>585</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="E23" s="21" t="s">
         <v>586</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="F23" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>588</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>589</v>
-      </c>
       <c r="G23" s="21" t="s">
+        <v>801</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>802</v>
+      </c>
+      <c r="I23" s="42" t="s">
         <v>803</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>804</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="224.4">
       <c r="A24" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>589</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="D24" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="E24" s="21" t="s">
         <v>592</v>
       </c>
-      <c r="D24" s="41" t="s">
+      <c r="F24" s="42" t="s">
         <v>593</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>594</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>595</v>
-      </c>
       <c r="G24" s="21" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="I24" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="112.2">
       <c r="A25" s="19" t="s">
+        <v>594</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>595</v>
+      </c>
+      <c r="C25" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="D25" s="41" t="s">
         <v>597</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="E25" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="F25" s="42" t="s">
         <v>599</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>600</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>601</v>
-      </c>
       <c r="G25" s="42" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I25" s="42" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="41.4">
       <c r="A26" s="19" t="s">
+        <v>600</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>601</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>602</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>603</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>604</v>
       </c>
       <c r="D26" s="41"/>
       <c r="E26" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I26" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="69">
       <c r="A27" s="19" t="s">
+        <v>603</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="B27" s="19" t="s">
-        <v>606</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>607</v>
-      </c>
       <c r="D27" s="41" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G27" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I27" s="42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="55.2">
       <c r="A28" s="19" t="s">
+        <v>606</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>607</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>608</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>609</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>610</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="21" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G28" s="42" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="H28" s="42" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I28" s="42" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="336.6">
       <c r="A29" s="140" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B29" s="140" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F29" s="24" t="s">
+        <v>810</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>811</v>
+      </c>
+      <c r="H29" s="44" t="s">
         <v>812</v>
       </c>
-      <c r="G29" s="44" t="s">
+      <c r="I29" s="24" t="s">
         <v>813</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>814</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="40.799999999999997">
       <c r="A30" s="25" t="s">
+        <v>613</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>614</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>615</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>617</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="24" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F30" s="24" t="s">
+        <v>814</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>815</v>
+      </c>
+      <c r="H30" s="24" t="s">
         <v>816</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="I30" s="24" t="s">
         <v>817</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>818</v>
-      </c>
-      <c r="I30" s="24" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="40.799999999999997">
       <c r="A31" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="C31" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="D31" s="43" t="s">
         <v>620</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>621</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>622</v>
-      </c>
       <c r="E31" s="24" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G31" s="24" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I31" s="24" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="55.2">
       <c r="A32" s="25" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B32" s="170" t="s">
         <v>1228</v>
       </c>
-      <c r="B32" s="170" t="s">
-        <v>1230</v>
-      </c>
       <c r="C32" s="23" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
@@ -13917,13 +14186,13 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="25" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B33" s="170" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D33" s="43"/>
       <c r="E33" s="24"/>
@@ -13934,985 +14203,985 @@
     </row>
     <row r="34" spans="1:10" ht="244.8">
       <c r="A34" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D34" s="43" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E34" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>624</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>625</v>
-      </c>
       <c r="F34" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>820</v>
+      </c>
+      <c r="H34" s="24" t="s">
         <v>821</v>
       </c>
-      <c r="G34" s="24" t="s">
-        <v>822</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>823</v>
-      </c>
       <c r="I34" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J34" s="89" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="25" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F35" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G35" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I35" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="20.399999999999999">
       <c r="A36" s="25" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E36" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F36" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G36" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I36" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="244.8">
       <c r="A37" s="140" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B37" s="26" t="s">
+        <v>628</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>629</v>
+      </c>
+      <c r="D37" s="43" t="s">
         <v>630</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="E37" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>632</v>
-      </c>
-      <c r="E37" s="24" t="s">
-        <v>633</v>
-      </c>
       <c r="F37" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="H37" s="24" t="s">
         <v>821</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>824</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>823</v>
-      </c>
       <c r="I37" s="24" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="25" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="43"/>
       <c r="E38" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F38" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G38" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H38" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I38" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="20.399999999999999">
       <c r="A39" s="25" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C39" s="23"/>
       <c r="D39" s="43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F39" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G39" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H39" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I39" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="193.2">
       <c r="A40" s="22" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F40" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H40" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I40" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="25" t="s">
+        <v>638</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="C41" s="23" t="s">
         <v>640</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>641</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>642</v>
       </c>
       <c r="D41" s="43"/>
       <c r="E41" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F41" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G41" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H41" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I41" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J41" s="89" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20.399999999999999">
       <c r="A42" s="25" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F42" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G42" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H42" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I42" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="41.4">
       <c r="A43" s="22" t="s">
+        <v>643</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>644</v>
+      </c>
+      <c r="C43" s="23" t="s">
         <v>645</v>
       </c>
-      <c r="B43" s="22" t="s">
-        <v>646</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>647</v>
-      </c>
       <c r="D43" s="43" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F43" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G43" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H43" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I43" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="25" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D44" s="43"/>
       <c r="E44" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F44" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G44" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H44" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I44" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="20.399999999999999">
       <c r="A45" s="25" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E45" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F45" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G45" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H45" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I45" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="41.4">
       <c r="A46" s="22" t="s">
+        <v>650</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>651</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>652</v>
       </c>
-      <c r="B46" s="22" t="s">
-        <v>653</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>654</v>
-      </c>
       <c r="D46" s="43" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="E46" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F46" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G46" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H46" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I46" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="27.6">
       <c r="A47" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="C47" s="23" t="s">
         <v>655</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>656</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>657</v>
       </c>
       <c r="D47" s="43"/>
       <c r="E47" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F47" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G47" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H47" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I47" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="20.399999999999999">
       <c r="A48" s="25" t="s">
+        <v>656</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>657</v>
+      </c>
+      <c r="C48" s="23" t="s">
         <v>658</v>
       </c>
-      <c r="B48" s="22" t="s">
-        <v>659</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>660</v>
-      </c>
       <c r="D48" s="43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E48" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F48" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G48" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H48" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I48" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="55.2">
       <c r="A49" s="22" t="s">
+        <v>659</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>661</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>662</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>663</v>
-      </c>
       <c r="D49" s="43" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E49" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G49" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H49" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I49" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="25" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D50" s="43"/>
       <c r="E50" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F50" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G50" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H50" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I50" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="20.399999999999999">
       <c r="A51" s="25" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E51" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F51" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G51" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H51" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I51" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="41.4">
       <c r="A52" s="22" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D52" s="43" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="E52" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F52" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G52" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H52" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I52" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="25" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D53" s="43"/>
       <c r="E53" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F53" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H53" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I53" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J53" s="89" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20.399999999999999">
       <c r="A54" s="25" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D54" s="43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F54" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H54" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I54" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="55.2">
       <c r="A55" s="22" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D55" s="43"/>
       <c r="E55" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F55" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H55" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I55" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="J55" s="89" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20.399999999999999">
       <c r="A56" s="25" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D56" s="43" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E56" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F56" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G56" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H56" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I56" s="44" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="61.2">
       <c r="A57" s="28" t="s">
+        <v>673</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>674</v>
+      </c>
+      <c r="C57" s="29" t="s">
         <v>675</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="D57" s="45" t="s">
         <v>676</v>
       </c>
-      <c r="C57" s="29" t="s">
+      <c r="E57" s="30" t="s">
         <v>677</v>
       </c>
-      <c r="D57" s="45" t="s">
+      <c r="F57" s="46" t="s">
         <v>678</v>
       </c>
-      <c r="E57" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="F57" s="46" t="s">
-        <v>680</v>
-      </c>
       <c r="G57" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="I57" s="46" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="41.4">
       <c r="A58" s="28" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B58" s="28" t="s">
         <v>1147</v>
       </c>
-      <c r="B58" s="28" t="s">
-        <v>1149</v>
-      </c>
       <c r="C58" s="29" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D58" s="45"/>
       <c r="E58" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G58" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H58" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I58" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="27.6">
       <c r="A59" s="28" t="s">
+        <v>679</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>680</v>
+      </c>
+      <c r="C59" s="29" t="s">
         <v>681</v>
       </c>
-      <c r="B59" s="28" t="s">
+      <c r="D59" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="E59" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="C59" s="29" t="s">
+      <c r="F59" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="D59" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>684</v>
-      </c>
-      <c r="F59" s="46" t="s">
-        <v>685</v>
-      </c>
       <c r="G59" s="30" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H59" s="46" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I59" s="46" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="27.6">
       <c r="A60" s="28" t="s">
+        <v>684</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>685</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>686</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="D60" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="E60" s="46" t="s">
         <v>687</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="F60" s="46" t="s">
         <v>688</v>
       </c>
-      <c r="D60" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="E60" s="46" t="s">
-        <v>689</v>
-      </c>
-      <c r="F60" s="46" t="s">
-        <v>690</v>
-      </c>
       <c r="G60" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="H60" s="46" t="s">
         <v>827</v>
       </c>
-      <c r="H60" s="46" t="s">
-        <v>829</v>
-      </c>
       <c r="I60" s="46" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="112.2">
       <c r="A61" s="28" t="s">
+        <v>689</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>690</v>
+      </c>
+      <c r="C61" s="29" t="s">
         <v>691</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="D61" s="45" t="s">
         <v>692</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="E61" s="46" t="s">
         <v>693</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="F61" s="46" t="s">
         <v>694</v>
       </c>
-      <c r="E61" s="46" t="s">
-        <v>695</v>
-      </c>
-      <c r="F61" s="46" t="s">
-        <v>696</v>
-      </c>
       <c r="G61" s="30" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H61" s="46" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I61" s="46" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="41.4">
       <c r="A62" s="28" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>1150</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>1152</v>
-      </c>
       <c r="D62" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E62" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F62" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G62" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H62" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I62" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="20.399999999999999">
       <c r="A63" s="28" t="s">
+        <v>695</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>696</v>
+      </c>
+      <c r="C63" s="29" t="s">
         <v>697</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="D63" s="45" t="s">
+        <v>439</v>
+      </c>
+      <c r="E63" s="46" t="s">
         <v>698</v>
       </c>
-      <c r="C63" s="29" t="s">
+      <c r="F63" s="46" t="s">
         <v>699</v>
       </c>
-      <c r="D63" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="E63" s="46" t="s">
-        <v>700</v>
-      </c>
-      <c r="F63" s="46" t="s">
-        <v>701</v>
-      </c>
       <c r="G63" s="46" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H63" s="30" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I63" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="81.599999999999994">
       <c r="A64" s="28" t="s">
+        <v>700</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>701</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>702</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="D64" s="45" t="s">
+        <v>832</v>
+      </c>
+      <c r="E64" s="46" t="s">
         <v>703</v>
       </c>
-      <c r="C64" s="29" t="s">
+      <c r="F64" s="46" t="s">
         <v>704</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="G64" s="46" t="s">
+        <v>833</v>
+      </c>
+      <c r="H64" s="30" t="s">
         <v>834</v>
       </c>
-      <c r="E64" s="46" t="s">
-        <v>705</v>
-      </c>
-      <c r="F64" s="46" t="s">
-        <v>706</v>
-      </c>
-      <c r="G64" s="46" t="s">
-        <v>835</v>
-      </c>
-      <c r="H64" s="30" t="s">
-        <v>836</v>
-      </c>
       <c r="I64" s="46" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="27.6">
       <c r="A65" s="28" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C65" s="29" t="s">
         <v>1153</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>1155</v>
       </c>
       <c r="D65" s="45"/>
       <c r="E65" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F65" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G65" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H65" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I65" s="45" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="112.2">
       <c r="A66" s="31" t="s">
+        <v>705</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>706</v>
+      </c>
+      <c r="C66" s="32" t="s">
         <v>707</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="D66" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="E66" s="33" t="s">
         <v>708</v>
       </c>
-      <c r="C66" s="32" t="s">
+      <c r="F66" s="48" t="s">
         <v>709</v>
       </c>
-      <c r="D66" s="47" t="s">
-        <v>441</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>710</v>
-      </c>
-      <c r="F66" s="48" t="s">
-        <v>711</v>
-      </c>
       <c r="G66" s="33" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="H66" s="33" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I66" s="33" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="112.2">
       <c r="A67" s="31" t="s">
+        <v>710</v>
+      </c>
+      <c r="B67" s="145" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D67" s="47" t="s">
         <v>712</v>
       </c>
-      <c r="B67" s="145" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D67" s="47" t="s">
-        <v>714</v>
-      </c>
       <c r="E67" s="33" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F67" s="48" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="G67" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H67" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I67" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="178" customFormat="1">
       <c r="A68" s="172"/>
       <c r="B68" s="173" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="C68" s="174" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="D68" s="175"/>
       <c r="E68" s="176"/>
@@ -14926,85 +15195,85 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="31" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B69" s="145" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D69" s="47"/>
       <c r="E69" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G69" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H69" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I69" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="27.6">
       <c r="A70" s="31" t="s">
+        <v>714</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>715</v>
+      </c>
+      <c r="C70" s="32" t="s">
         <v>716</v>
-      </c>
-      <c r="B70" s="31" t="s">
-        <v>717</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>718</v>
       </c>
       <c r="D70" s="47"/>
       <c r="E70" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F70" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G70" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H70" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I70" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="20.399999999999999">
       <c r="A71" s="34" t="s">
+        <v>717</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>718</v>
+      </c>
+      <c r="C71" s="32" t="s">
         <v>719</v>
       </c>
-      <c r="B71" s="31" t="s">
-        <v>720</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>721</v>
-      </c>
       <c r="D71" s="35" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E71" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F71" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G71" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H71" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="I71" s="48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -15043,12 +15312,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="186">
+      <c r="A1" s="190">
         <v>2019</v>
       </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
       <c r="E1" s="154">
         <v>2018</v>
       </c>
@@ -15081,19 +15350,19 @@
     </row>
     <row r="3" spans="1:10" ht="43.2">
       <c r="A3" s="158" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="B3" s="158" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C3" s="158" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="D3" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E3" s="156" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="H3" s="150"/>
       <c r="I3" s="150"/>
@@ -15101,25 +15370,25 @@
     </row>
     <row r="4" spans="1:10" ht="28.8">
       <c r="A4" s="158" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B4" s="158" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C4" s="158" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D4" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E4" s="155" t="s">
+        <v>878</v>
+      </c>
+      <c r="F4" s="155" t="s">
+        <v>879</v>
+      </c>
+      <c r="G4" s="155" t="s">
         <v>880</v>
-      </c>
-      <c r="F4" s="155" t="s">
-        <v>881</v>
-      </c>
-      <c r="G4" s="155" t="s">
-        <v>882</v>
       </c>
       <c r="H4" s="150"/>
       <c r="I4" s="150"/>
@@ -15127,19 +15396,19 @@
     </row>
     <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="158" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="B5" s="158" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C5" s="158" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D5" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E5" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F5" s="155"/>
       <c r="G5" s="155"/>
@@ -15149,19 +15418,19 @@
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" ht="43.2">
       <c r="A6" s="158" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="B6" s="158" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C6" s="158" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E6" s="155" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F6" s="157"/>
       <c r="G6" s="157"/>
@@ -15170,16 +15439,16 @@
     </row>
     <row r="7" spans="1:10" ht="28.8">
       <c r="A7" s="158" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B7" s="158" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C7" s="158" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E7" s="151"/>
       <c r="F7" s="150"/>
@@ -15190,16 +15459,16 @@
     </row>
     <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="158" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="B8" s="158" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C8" s="158" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D8" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E8" s="148"/>
       <c r="F8" s="146"/>
@@ -15209,16 +15478,16 @@
     </row>
     <row r="9" spans="1:10" ht="28.8">
       <c r="A9" s="158" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="B9" s="158" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="C9" s="158" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D9" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E9" s="148"/>
       <c r="F9" s="146"/>
@@ -15228,16 +15497,16 @@
     </row>
     <row r="10" spans="1:10" ht="28.8">
       <c r="A10" s="158" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B10" s="158" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C10" s="158" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="D10" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E10" s="148"/>
       <c r="F10" s="146"/>
@@ -15247,16 +15516,16 @@
     </row>
     <row r="11" spans="1:10" ht="43.2">
       <c r="A11" s="158" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="B11" s="158" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="C11" s="158" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D11" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E11" s="148"/>
       <c r="F11" s="146"/>
@@ -15266,16 +15535,16 @@
     </row>
     <row r="12" spans="1:10" ht="28.8">
       <c r="A12" s="158" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="B12" s="158" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C12" s="158" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="D12" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E12" s="148"/>
       <c r="F12" s="146"/>
@@ -15285,16 +15554,16 @@
     </row>
     <row r="13" spans="1:10" ht="28.8">
       <c r="A13" s="158" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B13" s="158" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="C13" s="158" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="D13" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E13" s="148"/>
       <c r="F13" s="146"/>
@@ -15304,13 +15573,13 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="160" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B14" s="160" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C14" s="161" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D14" s="160"/>
       <c r="E14" s="149"/>
@@ -15321,16 +15590,16 @@
     </row>
     <row r="15" spans="1:10" ht="40.799999999999997">
       <c r="A15" s="160" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="B15" s="160" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C15" s="161" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D15" s="162" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E15" s="149"/>
       <c r="F15" s="149"/>
@@ -15340,16 +15609,16 @@
     </row>
     <row r="16" spans="1:10" ht="28.8">
       <c r="A16" s="169" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B16" s="169" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C16" s="158" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D16" s="159" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E16" s="149"/>
       <c r="F16" s="149"/>
@@ -15359,10 +15628,10 @@
     </row>
     <row r="17" spans="1:9" ht="28.8">
       <c r="A17" s="161" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B17" s="161" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C17" s="161"/>
       <c r="D17" s="162"/>
@@ -15374,16 +15643,16 @@
     </row>
     <row r="18" spans="1:9" ht="43.2">
       <c r="A18" s="163" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="B18" s="164" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C18" s="164" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="D18" s="165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E18" s="149"/>
       <c r="F18" s="149"/>
@@ -15393,16 +15662,16 @@
     </row>
     <row r="19" spans="1:9" ht="43.2">
       <c r="A19" s="163" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B19" s="164" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C19" s="164" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D19" s="165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E19" s="149"/>
       <c r="F19" s="149"/>
@@ -15412,16 +15681,16 @@
     </row>
     <row r="20" spans="1:9" ht="43.2">
       <c r="A20" s="163" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B20" s="164" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C20" s="164" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D20" s="165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E20" s="149"/>
       <c r="F20" s="149"/>
@@ -15431,16 +15700,16 @@
     </row>
     <row r="21" spans="1:9" ht="57.6">
       <c r="A21" s="163" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B21" s="164" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="C21" s="164" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="D21" s="165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E21" s="149"/>
       <c r="F21" s="149"/>
@@ -15450,16 +15719,16 @@
     </row>
     <row r="22" spans="1:9" ht="43.2">
       <c r="A22" s="163" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="B22" s="164" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C22" s="164" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="D22" s="165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E22" s="149"/>
       <c r="F22" s="149"/>
@@ -15469,16 +15738,16 @@
     </row>
     <row r="23" spans="1:9" ht="43.2">
       <c r="A23" s="163" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B23" s="164" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="C23" s="164" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="D23" s="165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E23" s="149"/>
       <c r="F23" s="149"/>
@@ -15488,16 +15757,16 @@
     </row>
     <row r="24" spans="1:9" ht="43.2">
       <c r="A24" s="163" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="B24" s="164" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C24" s="164" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="D24" s="165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E24" s="149"/>
       <c r="F24" s="149"/>
@@ -15507,16 +15776,16 @@
     </row>
     <row r="25" spans="1:9" ht="57.6">
       <c r="A25" s="163" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B25" s="164" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="C25" s="164" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="D25" s="165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E25" s="149"/>
       <c r="F25" s="149"/>
@@ -15526,27 +15795,27 @@
     </row>
     <row r="26" spans="1:9" ht="57.6">
       <c r="A26" s="163" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="B26" s="164" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C26" s="164" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="D26" s="165" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="166" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B27" s="167" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C27" s="167" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D27" s="166"/>
       <c r="E27" s="149"/>
@@ -15557,16 +15826,16 @@
     </row>
     <row r="28" spans="1:9" ht="40.799999999999997">
       <c r="A28" s="166" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B28" s="167" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="C28" s="167" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="D28" s="168" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E28" s="149"/>
       <c r="F28" s="149"/>
@@ -15607,27 +15876,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="190">
+      <c r="A1" s="194">
         <v>2019</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
     </row>
     <row r="2" spans="1:6" ht="72.599999999999994" customHeight="1">
       <c r="A2" s="95" t="s">
         <v>129</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C2" s="141" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="D2" s="141" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E2" s="111" t="s">
         <v>0</v>
@@ -15638,469 +15907,469 @@
     </row>
     <row r="3" spans="1:6" ht="137.4" customHeight="1">
       <c r="A3" s="137" t="s">
+        <v>993</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D3" s="196" t="s">
         <v>995</v>
       </c>
-      <c r="B3" s="99" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C3" s="99" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D3" s="192" t="s">
-        <v>997</v>
-      </c>
       <c r="E3" s="112" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F3" s="125" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2">
       <c r="A4" s="99" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B4" s="98" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D4" s="193"/>
+        <v>1076</v>
+      </c>
+      <c r="D4" s="197"/>
       <c r="E4" s="112" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F4" s="125"/>
     </row>
     <row r="5" spans="1:6" ht="43.2">
       <c r="A5" s="99" t="s">
+        <v>646</v>
+      </c>
+      <c r="B5" s="99" t="s">
         <v>648</v>
       </c>
-      <c r="B5" s="99" t="s">
-        <v>650</v>
-      </c>
       <c r="C5" s="99" t="s">
-        <v>1252</v>
-      </c>
-      <c r="D5" s="193"/>
+        <v>1250</v>
+      </c>
+      <c r="D5" s="197"/>
       <c r="E5" s="112" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F5" s="126"/>
     </row>
     <row r="6" spans="1:6" ht="57.6">
       <c r="A6" s="98" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>1253</v>
-      </c>
-      <c r="D6" s="193"/>
+        <v>1251</v>
+      </c>
+      <c r="D6" s="197"/>
       <c r="E6" s="112" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F6" s="126"/>
     </row>
     <row r="7" spans="1:6" ht="28.8">
       <c r="A7" s="100" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B7" s="98" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D7" s="197"/>
+      <c r="E7" s="112" t="s">
         <v>1063</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="112" t="s">
-        <v>1065</v>
       </c>
       <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:6" ht="43.2">
       <c r="A8" s="100" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="B8" s="98" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C8" s="98" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D8" s="198"/>
+      <c r="E8" s="112" t="s">
         <v>1064</v>
-      </c>
-      <c r="C8" s="98" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D8" s="194"/>
-      <c r="E8" s="112" t="s">
-        <v>1066</v>
       </c>
       <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:6" ht="93">
       <c r="A9" s="97" t="s">
+        <v>632</v>
+      </c>
+      <c r="B9" s="97" t="s">
         <v>634</v>
       </c>
-      <c r="B9" s="97" t="s">
-        <v>636</v>
-      </c>
       <c r="C9" s="97" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D9" s="191" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D9" s="195" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F9" s="127" t="s">
         <v>1003</v>
-      </c>
-      <c r="E9" s="113" t="s">
-        <v>1006</v>
-      </c>
-      <c r="F9" s="127" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="57.6">
       <c r="A10" s="97" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C10" s="97" t="s">
-        <v>1257</v>
-      </c>
-      <c r="D10" s="191"/>
+        <v>1255</v>
+      </c>
+      <c r="D10" s="195"/>
       <c r="E10" s="113" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F10" s="127"/>
     </row>
     <row r="11" spans="1:6" ht="28.8" customHeight="1">
       <c r="A11" s="101" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B11" s="101" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C11" s="101" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D11" s="204" t="s">
-        <v>1042</v>
+        <v>1256</v>
+      </c>
+      <c r="D11" s="200" t="s">
+        <v>1040</v>
       </c>
       <c r="E11" s="114" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F11" s="128"/>
     </row>
     <row r="12" spans="1:6" ht="28.8">
       <c r="A12" s="101" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B12" s="101" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C12" s="101" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D12" s="205"/>
+        <v>1257</v>
+      </c>
+      <c r="D12" s="201"/>
       <c r="E12" s="114" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F12" s="128"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="101" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B13" s="101" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C13" s="101" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D13" s="205"/>
+        <v>1258</v>
+      </c>
+      <c r="D13" s="201"/>
       <c r="E13" s="114" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="F13" s="128"/>
     </row>
     <row r="14" spans="1:6" ht="28.8">
       <c r="A14" s="101" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D14" s="205"/>
+        <v>1075</v>
+      </c>
+      <c r="D14" s="201"/>
       <c r="E14" s="114" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F14" s="128"/>
     </row>
     <row r="15" spans="1:6" ht="43.2">
       <c r="A15" s="101" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B15" s="101" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C15" s="101" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D15" s="206"/>
+        <v>1260</v>
+      </c>
+      <c r="D15" s="202"/>
       <c r="E15" s="114" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F15" s="128"/>
     </row>
     <row r="16" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A16" s="108" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="108" t="s">
         <v>1017</v>
       </c>
-      <c r="B16" s="108" t="s">
-        <v>1019</v>
-      </c>
       <c r="C16" s="108" t="s">
-        <v>1263</v>
-      </c>
-      <c r="D16" s="195" t="s">
-        <v>1041</v>
+        <v>1261</v>
+      </c>
+      <c r="D16" s="199" t="s">
+        <v>1039</v>
       </c>
       <c r="E16" s="115" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F16" s="129"/>
     </row>
     <row r="17" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A17" s="108" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B17" s="108" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C17" s="108" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D17" s="195"/>
+        <v>1262</v>
+      </c>
+      <c r="D17" s="199"/>
       <c r="E17" s="115" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F17" s="129"/>
     </row>
     <row r="18" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A18" s="138" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B18" s="139" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C18" s="139" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D18" s="103" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F18" s="130"/>
     </row>
     <row r="19" spans="1:6" ht="28.8" customHeight="1">
       <c r="A19" s="109" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B19" s="109" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C19" s="109" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D19" s="196" t="s">
-        <v>1039</v>
+        <v>1259</v>
+      </c>
+      <c r="D19" s="203" t="s">
+        <v>1037</v>
       </c>
       <c r="E19" s="116" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F19" s="131"/>
     </row>
     <row r="20" spans="1:6" s="96" customFormat="1" ht="28.8" customHeight="1">
       <c r="A20" s="109" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B20" s="109" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C20" s="109" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D20" s="197"/>
+        <v>1264</v>
+      </c>
+      <c r="D20" s="204"/>
       <c r="E20" s="116" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="F20" s="131"/>
     </row>
     <row r="21" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A21" s="109" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B21" s="109" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D21" s="197"/>
+        <v>1265</v>
+      </c>
+      <c r="D21" s="204"/>
       <c r="E21" s="116" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F21" s="131"/>
     </row>
     <row r="22" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A22" s="109" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B22" s="109" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C22" s="109" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D22" s="197"/>
+        <v>1266</v>
+      </c>
+      <c r="D22" s="204"/>
       <c r="E22" s="116" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F22" s="131"/>
     </row>
     <row r="23" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A23" s="109" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B23" s="109" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D23" s="198"/>
+        <v>1267</v>
+      </c>
+      <c r="D23" s="205"/>
       <c r="E23" s="116" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F23" s="131"/>
     </row>
     <row r="24" spans="1:6" s="96" customFormat="1" ht="86.4">
       <c r="A24" s="105" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B24" s="105" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C24" s="105" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D24" s="106" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E24" s="117" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F24" s="132"/>
     </row>
     <row r="25" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A25" s="110" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D25" s="187" t="s">
-        <v>1056</v>
+        <v>1269</v>
+      </c>
+      <c r="D25" s="191" t="s">
+        <v>1054</v>
       </c>
       <c r="E25" s="118" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F25" s="133"/>
     </row>
     <row r="26" spans="1:6" s="96" customFormat="1" ht="28.8">
       <c r="A26" s="110" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B26" s="110" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D26" s="187"/>
+        <v>1270</v>
+      </c>
+      <c r="D26" s="191"/>
       <c r="E26" s="118" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F26" s="133"/>
     </row>
     <row r="27" spans="1:6" s="96" customFormat="1" ht="72">
       <c r="A27" s="107" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B27" s="107" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C27" s="107" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D27" s="104" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E27" s="119" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="F27" s="134"/>
     </row>
     <row r="28" spans="1:6" s="96" customFormat="1" ht="43.2">
       <c r="A28" s="124" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>1274</v>
-      </c>
-      <c r="D28" s="188" t="s">
-        <v>1286</v>
+        <v>1272</v>
+      </c>
+      <c r="D28" s="192" t="s">
+        <v>1284</v>
       </c>
       <c r="E28" s="124" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="F28" s="135"/>
     </row>
     <row r="29" spans="1:6" s="96" customFormat="1" ht="57.6">
       <c r="A29" s="124" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C29" s="124" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D29" s="189"/>
+        <v>1268</v>
+      </c>
+      <c r="D29" s="193"/>
       <c r="E29" s="124" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F29" s="135"/>
     </row>
     <row r="30" spans="1:6" s="96" customFormat="1" ht="57.6">
-      <c r="A30" s="207"/>
-      <c r="B30" s="207"/>
-      <c r="C30" s="207"/>
-      <c r="D30" s="208" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E30" s="209"/>
-      <c r="F30" s="210"/>
+      <c r="A30" s="180"/>
+      <c r="B30" s="180"/>
+      <c r="C30" s="180"/>
+      <c r="D30" s="181" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E30" s="182"/>
+      <c r="F30" s="183"/>
     </row>
     <row r="31" spans="1:6" s="96" customFormat="1">
       <c r="D31" s="122"/>
@@ -16130,6 +16399,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002D279E8C12560746A5589ECBE76EDB9C" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="275b98c7b2d1a98f10df1dfa6514a574">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4aae9226-4411-406b-98ce-94e2e69fab2c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed3df33eb7fba4d88da1c8ace1d112b5" ns3:_="">
     <xsd:import namespace="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
@@ -16313,22 +16597,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1AF087B-7334-445C-8DFD-4B9828CB55F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16344,28 +16637,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4E4CF47-E673-4F26-A959-0B7774EBA194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4aae9226-4411-406b-98ce-94e2e69fab2c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D82FA49E-E684-481F-999C-85E775CBBA65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>